--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="33">
   <si>
     <t>Nr/MP</t>
   </si>
@@ -195,15 +195,21 @@
   <si>
     <t>Biegeteile</t>
   </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>max Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +313,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -378,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,20 +411,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -429,15 +458,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -452,6 +495,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -530,34 +574,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="58529664"/>
-        <c:axId val="58531200"/>
+        <c:axId val="104507648"/>
+        <c:axId val="104621952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58529664"/>
+        <c:axId val="104507648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58531200"/>
+        <c:crossAx val="104621952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58531200"/>
+        <c:axId val="104621952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58529664"/>
+        <c:crossAx val="104507648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,8 +625,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -578,8 +641,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -605,15 +677,29 @@
           <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -628,6 +714,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -673,10 +760,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14475023861447461</c:v>
+                  <c:v>0.14475023861447475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15401298646542738</c:v>
+                  <c:v>0.15401298646542766</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.7141747805092262E-2</c:v>
@@ -706,34 +793,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="65844352"/>
-        <c:axId val="65845888"/>
+        <c:axId val="181386624"/>
+        <c:axId val="181396608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65844352"/>
+        <c:axId val="181386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65845888"/>
+        <c:crossAx val="181396608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65845888"/>
+        <c:axId val="181396608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65844352"/>
+        <c:crossAx val="181386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -741,8 +844,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -754,8 +860,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="8"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -774,15 +889,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -797,6 +926,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$F$76:$K$76</c:f>
@@ -851,34 +981,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="65862272"/>
-        <c:axId val="65732992"/>
+        <c:axId val="181421568"/>
+        <c:axId val="181423104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65862272"/>
+        <c:axId val="181421568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65732992"/>
+        <c:crossAx val="181423104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65732992"/>
+        <c:axId val="181423104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65862272"/>
+        <c:crossAx val="181421568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -886,8 +1032,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -899,8 +1048,17 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="8"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -926,15 +1084,29 @@
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -949,6 +1121,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$F$76:$K$76</c:f>
@@ -982,55 +1155,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.11817026075250883</c:v>
+                  <c:v>0.11817026075250819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19584902885963382</c:v>
+                  <c:v>0.19584902885963756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21983007791904546</c:v>
+                  <c:v>0.21983007791904804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11329514320431033</c:v>
+                  <c:v>0.11329514320430603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5801329515021919E-2</c:v>
+                  <c:v>9.5801329515002642E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4679514818761024E-2</c:v>
+                  <c:v>9.4679514818759997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="65782144"/>
-        <c:axId val="65783680"/>
+        <c:axId val="181448064"/>
+        <c:axId val="181449856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65782144"/>
+        <c:axId val="181448064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65783680"/>
+        <c:crossAx val="181449856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65783680"/>
+        <c:axId val="181449856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65782144"/>
+        <c:crossAx val="181448064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,8 +1227,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1051,8 +1243,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1070,16 +1271,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1094,6 +1308,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>[1]nFxxKonturAussen!$D$6:$M$6</c:f>
@@ -1172,43 +1387,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="65902848"/>
-        <c:axId val="65921024"/>
+        <c:axId val="225425280"/>
+        <c:axId val="225426816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65902848"/>
+        <c:axId val="225425280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65921024"/>
+        <c:crossAx val="225426816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65921024"/>
+        <c:axId val="225426816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65902848"/>
+        <c:crossAx val="225425280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1220,8 +1453,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1239,16 +1481,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1263,6 +1518,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -1341,43 +1597,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="65945600"/>
-        <c:axId val="65947136"/>
+        <c:axId val="226447360"/>
+        <c:axId val="226448896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65945600"/>
+        <c:axId val="226447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65947136"/>
+        <c:crossAx val="226448896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65947136"/>
+        <c:axId val="226448896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65945600"/>
+        <c:crossAx val="226447360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1389,8 +1663,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1416,15 +1699,29 @@
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1439,6 +1736,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -1496,10 +1794,10 @@
                   <c:v>2.4899799195977301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.260610210891271E-2</c:v>
+                  <c:v>3.2606102108912703E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4809802816417564E-2</c:v>
+                  <c:v>2.4809802816416617E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.881885347805227E-2</c:v>
@@ -1517,43 +1815,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="65975808"/>
-        <c:axId val="65977344"/>
+        <c:axId val="226465664"/>
+        <c:axId val="226467200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65975808"/>
+        <c:axId val="226465664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65977344"/>
+        <c:crossAx val="226467200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65977344"/>
+        <c:axId val="226467200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65975808"/>
+        <c:crossAx val="226465664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1565,8 +1881,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1584,16 +1909,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1608,6 +1946,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>[1]nFxxKonturAussen!$D$6:$M$6</c:f>
@@ -1686,43 +2025,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66006016"/>
-        <c:axId val="66016000"/>
+        <c:axId val="231153664"/>
+        <c:axId val="231155200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66006016"/>
+        <c:axId val="231153664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66016000"/>
+        <c:crossAx val="231155200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66016000"/>
+        <c:axId val="231155200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66006016"/>
+        <c:crossAx val="231153664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1734,8 +2091,17 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1753,16 +2119,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1777,6 +2156,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -1855,43 +2235,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66036480"/>
-        <c:axId val="66038016"/>
+        <c:axId val="231176064"/>
+        <c:axId val="231177600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66036480"/>
+        <c:axId val="231176064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66038016"/>
+        <c:crossAx val="231177600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66038016"/>
+        <c:axId val="231177600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66036480"/>
+        <c:crossAx val="231176064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1903,8 +2301,17 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1922,16 +2329,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1946,6 +2366,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -1991,7 +2412,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12143332586888243</c:v>
+                  <c:v>0.12143332586888554</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.15094352377104689</c:v>
@@ -2003,10 +2424,10 @@
                   <c:v>3.1867323637065369E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5526044491230367E-2</c:v>
+                  <c:v>2.5526044491233284E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8099592482970748E-2</c:v>
+                  <c:v>3.8099592482970492E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.3308762874212805E-2</c:v>
@@ -2024,43 +2445,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66078976"/>
-        <c:axId val="66080768"/>
+        <c:axId val="231198720"/>
+        <c:axId val="231200256"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66078976"/>
+        <c:axId val="231198720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66080768"/>
+        <c:crossAx val="231200256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66080768"/>
+        <c:axId val="231200256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66078976"/>
+        <c:crossAx val="231198720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2072,8 +2511,17 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2091,16 +2539,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2115,6 +2576,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -2193,43 +2655,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66105344"/>
-        <c:axId val="66106880"/>
+        <c:axId val="231237504"/>
+        <c:axId val="231239040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66105344"/>
+        <c:axId val="231237504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66106880"/>
+        <c:crossAx val="231239040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66106880"/>
+        <c:axId val="231239040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66105344"/>
+        <c:crossAx val="231237504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2241,8 +2721,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2268,15 +2757,29 @@
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2291,6 +2794,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -2348,10 +2852,10 @@
                   <c:v>2.4899799195977301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.260610210891271E-2</c:v>
+                  <c:v>3.2606102108912703E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4809802816417564E-2</c:v>
+                  <c:v>2.4809802816416617E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.881885347805227E-2</c:v>
@@ -2369,34 +2873,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="58564608"/>
-        <c:axId val="58566144"/>
+        <c:axId val="108845312"/>
+        <c:axId val="108908928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58564608"/>
+        <c:axId val="108845312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58566144"/>
+        <c:crossAx val="108908928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58566144"/>
+        <c:axId val="108908928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58564608"/>
+        <c:crossAx val="108845312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2404,8 +2924,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2417,8 +2940,17 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2444,15 +2976,29 @@
           <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2467,6 +3013,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -2512,10 +3059,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14475023861447461</c:v>
+                  <c:v>0.14475023861447475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15401298646542738</c:v>
+                  <c:v>0.15401298646542766</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.7141747805092262E-2</c:v>
@@ -2545,43 +3092,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66192896"/>
-        <c:axId val="66194432"/>
+        <c:axId val="231256064"/>
+        <c:axId val="231257600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66192896"/>
+        <c:axId val="231256064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66194432"/>
+        <c:crossAx val="231257600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66194432"/>
+        <c:axId val="231257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66192896"/>
+        <c:crossAx val="231256064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2593,8 +3158,17 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2612,16 +3186,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2636,6 +3223,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]nF17 KonturAussen'!$E$5:$N$5</c:f>
@@ -2714,43 +3302,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66235392"/>
-        <c:axId val="66249472"/>
+        <c:axId val="231266176"/>
+        <c:axId val="231267712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66235392"/>
+        <c:axId val="231266176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66249472"/>
+        <c:crossAx val="231267712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66249472"/>
+        <c:axId val="231267712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66235392"/>
+        <c:crossAx val="231266176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2762,8 +3368,17 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2781,16 +3396,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2805,6 +3433,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]nF17 KonturAussen'!$E$5:$N$5</c:f>
@@ -2883,43 +3512,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66130688"/>
-        <c:axId val="66132224"/>
+        <c:axId val="231362560"/>
+        <c:axId val="231364096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66130688"/>
+        <c:axId val="231362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66132224"/>
+        <c:crossAx val="231364096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66132224"/>
+        <c:axId val="231364096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66130688"/>
+        <c:crossAx val="231362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2931,8 +3578,17 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2950,16 +3606,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2974,6 +3643,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]F18 Kontur aussen'!$E$6:$N$6</c:f>
@@ -3052,43 +3722,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66160896"/>
-        <c:axId val="66166784"/>
+        <c:axId val="231384960"/>
+        <c:axId val="231386496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66160896"/>
+        <c:axId val="231384960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66166784"/>
+        <c:crossAx val="231386496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66166784"/>
+        <c:axId val="231386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66160896"/>
+        <c:crossAx val="231384960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3100,8 +3788,17 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3127,15 +3824,29 @@
           <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3150,6 +3861,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]F18 Kontur aussen'!$E$6:$N$6</c:f>
@@ -3228,43 +3940,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66347008"/>
-        <c:axId val="66348544"/>
+        <c:axId val="231419904"/>
+        <c:axId val="231421440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66347008"/>
+        <c:axId val="231419904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66348544"/>
+        <c:crossAx val="231421440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66348544"/>
+        <c:axId val="231421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66347008"/>
+        <c:crossAx val="231419904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3276,7 +4006,17 @@
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3295,15 +4035,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3318,6 +4072,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>LaborVergleich!$D$4:$M$4</c:f>
@@ -3410,6 +4165,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>LaborVergleich!$D$4:$M$4</c:f>
@@ -3502,6 +4258,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>LaborVergleich!$D$4:$M$4</c:f>
@@ -3580,34 +4337,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="66379136"/>
-        <c:axId val="66724992"/>
+        <c:axId val="231436288"/>
+        <c:axId val="231437824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66379136"/>
+        <c:axId val="231436288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66724992"/>
+        <c:crossAx val="231437824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66724992"/>
+        <c:axId val="231437824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66379136"/>
+        <c:crossAx val="231436288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3615,8 +4388,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3628,8 +4404,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="8"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3648,15 +4433,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3671,6 +4470,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$55:$L$55</c:f>
@@ -3737,34 +4537,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="59979264"/>
-        <c:axId val="59980800"/>
+        <c:axId val="125548032"/>
+        <c:axId val="125586432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59979264"/>
+        <c:axId val="125548032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59980800"/>
+        <c:crossAx val="125586432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59980800"/>
+        <c:axId val="125586432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59979264"/>
+        <c:crossAx val="125548032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3772,8 +4588,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3785,8 +4604,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="8"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3805,15 +4633,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3828,6 +4670,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$55:$L$55</c:f>
@@ -3867,61 +4710,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.1406914009926145E-2</c:v>
+                  <c:v>7.1406914009926603E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2699815391068706E-2</c:v>
+                  <c:v>7.269981539106371E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4641247239533845E-2</c:v>
+                  <c:v>7.4641247239536954E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14236628075051938</c:v>
+                  <c:v>0.14236628075052335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14666108442327411</c:v>
+                  <c:v>0.14666108442327341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11800981225930011</c:v>
+                  <c:v>0.11800981225929344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.102618352724007</c:v>
+                  <c:v>0.10261835272401072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9725248121345345E-2</c:v>
+                  <c:v>5.9725248121358945E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="60005376"/>
-        <c:axId val="60027648"/>
+        <c:axId val="128518400"/>
+        <c:axId val="164722176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60005376"/>
+        <c:axId val="128518400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60027648"/>
+        <c:crossAx val="164722176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60027648"/>
+        <c:axId val="164722176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60005376"/>
+        <c:crossAx val="128518400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3929,8 +4788,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3942,8 +4804,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3962,15 +4833,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3985,6 +4870,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -4063,34 +4949,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="60552320"/>
-        <c:axId val="60553856"/>
+        <c:axId val="177644288"/>
+        <c:axId val="177665536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60552320"/>
+        <c:axId val="177644288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60553856"/>
+        <c:crossAx val="177665536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60553856"/>
+        <c:axId val="177665536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60552320"/>
+        <c:crossAx val="177644288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4098,8 +5000,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4111,8 +5016,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4131,15 +5045,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4154,6 +5082,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -4199,7 +5128,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12143332586888243</c:v>
+                  <c:v>0.12143332586888554</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.15094352377104689</c:v>
@@ -4211,10 +5140,10 @@
                   <c:v>3.1867323637065369E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5526044491230367E-2</c:v>
+                  <c:v>2.5526044491233284E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8099592482970748E-2</c:v>
+                  <c:v>3.8099592482970492E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.3308762874212805E-2</c:v>
@@ -4232,34 +5161,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="60906112"/>
-        <c:axId val="60916096"/>
+        <c:axId val="179630464"/>
+        <c:axId val="179633536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60906112"/>
+        <c:axId val="179630464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60916096"/>
+        <c:crossAx val="179633536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60916096"/>
+        <c:axId val="179633536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60906112"/>
+        <c:crossAx val="179630464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4267,8 +5212,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4280,8 +5228,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="8"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4300,15 +5257,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4323,6 +5294,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$105:$L$105</c:f>
@@ -4389,34 +5361,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="60936576"/>
-        <c:axId val="60938112"/>
+        <c:axId val="180656000"/>
+        <c:axId val="180916224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60936576"/>
+        <c:axId val="180656000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60938112"/>
+        <c:crossAx val="180916224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60938112"/>
+        <c:axId val="180916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60936576"/>
+        <c:crossAx val="180656000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4424,8 +5412,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4437,8 +5428,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="8"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4457,15 +5457,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4480,6 +5494,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$105:$L$105</c:f>
@@ -4519,61 +5534,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.1694955470122518E-2</c:v>
+                  <c:v>5.1694955470071129E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5123364713268059E-2</c:v>
+                  <c:v>6.5123364713280465E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.691707358245258E-2</c:v>
+                  <c:v>6.6917073582473022E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2391874918800345E-2</c:v>
+                  <c:v>8.2391874918778155E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14996841772783839</c:v>
+                  <c:v>0.14996841772783184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3816842924881715E-2</c:v>
+                  <c:v>8.3816842924884435E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7546251054688736E-2</c:v>
+                  <c:v>7.7546251054654958E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9651387563160222E-2</c:v>
+                  <c:v>6.9651387563161152E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="61228544"/>
-        <c:axId val="61230080"/>
+        <c:axId val="182641408"/>
+        <c:axId val="182642944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61228544"/>
+        <c:axId val="182641408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61230080"/>
+        <c:crossAx val="182642944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61230080"/>
+        <c:axId val="182642944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61228544"/>
+        <c:crossAx val="182641408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4581,8 +5612,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4594,8 +5628,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="5"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4614,15 +5657,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4637,6 +5694,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -4715,34 +5773,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="61246848"/>
-        <c:axId val="65819776"/>
+        <c:axId val="232621184"/>
+        <c:axId val="232622720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61246848"/>
+        <c:axId val="232621184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65819776"/>
+        <c:crossAx val="232622720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65819776"/>
+        <c:axId val="232622720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61246848"/>
+        <c:crossAx val="232621184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4750,8 +5824,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4891,15 +5968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4921,15 +5998,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>16563</xdr:rowOff>
+      <xdr:colOff>455543</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>91107</xdr:rowOff>
+      <xdr:colOff>455543</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5537,7 +6614,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Kontur aussen F17Chr1"/>
@@ -5893,7 +6970,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -5967,6 +7044,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6001,6 +7079,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -6176,29 +7255,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.46733820729745601</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
@@ -6233,7 +7312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -6268,7 +7347,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
@@ -6303,7 +7382,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>3</v>
       </c>
@@ -6338,7 +7417,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>4</v>
       </c>
@@ -6373,7 +7452,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>5</v>
       </c>
@@ -6408,7 +7487,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>6</v>
       </c>
@@ -6443,7 +7522,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>7</v>
       </c>
@@ -6478,7 +7557,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>8</v>
       </c>
@@ -6513,7 +7592,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -6548,7 +7627,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>10</v>
       </c>
@@ -6583,7 +7662,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>11</v>
       </c>
@@ -6618,7 +7697,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="4:14">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>12</v>
       </c>
@@ -6653,7 +7732,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="4:14">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>13</v>
       </c>
@@ -6688,7 +7767,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="4:14">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>14</v>
       </c>
@@ -6723,7 +7802,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="20" spans="4:14">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>15</v>
       </c>
@@ -6758,7 +7837,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="4:14">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16</v>
       </c>
@@ -6793,7 +7872,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="22" spans="4:14">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>17</v>
       </c>
@@ -6828,7 +7907,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="4:14">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>18</v>
       </c>
@@ -6863,7 +7942,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="24" spans="4:14">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>19</v>
       </c>
@@ -6898,7 +7977,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="25" spans="4:14">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>20</v>
       </c>
@@ -6933,7 +8012,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="4:14">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
@@ -6978,7 +8057,7 @@
         <v>0.7034999999999999</v>
       </c>
     </row>
-    <row r="27" spans="4:14">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
@@ -7000,11 +8079,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>3.260610210891271E-2</v>
+        <v>3.2606102108912703E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>2.4809802816417564E-2</v>
+        <v>2.4809802816416617E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
@@ -7023,7 +8102,7 @@
         <v>0.21902355076446389</v>
       </c>
     </row>
-    <row r="28" spans="4:14" ht="15.75">
+    <row r="28" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
         <v>22</v>
       </c>
@@ -7045,11 +8124,11 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>7.2909460796828068E-3</v>
+        <v>7.290946079682805E-3</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>5.5476405605875403E-3</v>
+        <v>5.5476405605873287E-3</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
@@ -7068,7 +8147,7 @@
         <v>4.8975154818271728E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:14" ht="15.75">
+    <row r="29" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
@@ -7090,11 +8169,11 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>1.5238077306537066E-2</v>
+        <v>1.5238077306537062E-2</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="3"/>
-        <v>1.1594568771627959E-2</v>
+        <v>1.1594568771627517E-2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
@@ -7113,7 +8192,7 @@
         <v>0.1023580735701879</v>
       </c>
     </row>
-    <row r="30" spans="4:14" ht="15.75">
+    <row r="30" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="11" t="s">
         <v>24</v>
       </c>
@@ -7148,13 +8227,67 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="18.75">
+    <row r="31" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1">
+        <f>ABS(ABS(MIN(E6:E25)-ABS(MAX(E6:E25))))</f>
+        <v>1.02</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:N31" si="4">ABS(ABS(MIN(F6:F25)-ABS(MAX(F6:F25))))</f>
+        <v>0.76</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.69</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.79</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0699999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <f>MAX(E31:N31)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="55" spans="4:13">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D55" s="7" t="s">
         <v>0</v>
       </c>
@@ -7186,7 +8319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="4:13">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>1</v>
       </c>
@@ -7218,7 +8351,7 @@
         <v>-2.4500000000000002</v>
       </c>
     </row>
-    <row r="57" spans="4:13">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>2</v>
       </c>
@@ -7250,7 +8383,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="58" spans="4:13">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -7282,7 +8415,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="59" spans="4:13">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
         <v>4</v>
       </c>
@@ -7314,7 +8447,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="60" spans="4:13">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" s="1">
         <v>5</v>
       </c>
@@ -7346,7 +8479,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="61" spans="4:13">
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" s="1">
         <v>6</v>
       </c>
@@ -7378,7 +8511,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="62" spans="4:13">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D62" s="1">
         <v>7</v>
       </c>
@@ -7410,7 +8543,7 @@
         <v>-2.41</v>
       </c>
     </row>
-    <row r="63" spans="4:13">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
         <v>8</v>
       </c>
@@ -7442,7 +8575,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="64" spans="4:13">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" s="1">
         <v>9</v>
       </c>
@@ -7474,7 +8607,7 @@
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="65" spans="4:13">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D65" s="1">
         <v>10</v>
       </c>
@@ -7506,7 +8639,7 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="66" spans="4:13">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" s="1">
         <v>11</v>
       </c>
@@ -7538,7 +8671,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="67" spans="4:13">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" s="1">
         <v>12</v>
       </c>
@@ -7570,7 +8703,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="68" spans="4:13">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" s="1">
         <v>13</v>
       </c>
@@ -7602,7 +8735,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="69" spans="4:13">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="1">
         <v>14</v>
       </c>
@@ -7634,7 +8767,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="70" spans="4:13">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
         <v>15</v>
       </c>
@@ -7666,7 +8799,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="71" spans="4:13">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="1">
         <v>16</v>
       </c>
@@ -7698,7 +8831,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="72" spans="4:13">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="1">
         <v>17</v>
       </c>
@@ -7730,7 +8863,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="73" spans="4:13">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="1">
         <v>18</v>
       </c>
@@ -7762,7 +8895,7 @@
         <v>-2.94</v>
       </c>
     </row>
-    <row r="74" spans="4:13">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="1">
         <v>19</v>
       </c>
@@ -7794,7 +8927,7 @@
         <v>-2.66</v>
       </c>
     </row>
-    <row r="75" spans="4:13">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="1">
         <v>20</v>
       </c>
@@ -7826,155 +8959,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="4:13">
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76:L76" si="4">AVERAGE(E56:E75)</f>
+        <f t="shared" ref="E76:L76" si="5">AVERAGE(E56:E75)</f>
         <v>-2.4660000000000002</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5729999999999995</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9885000000000002</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9744999999999999</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6459999999999999</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6799999999999997</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5860000000000003</v>
       </c>
       <c r="L76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4175</v>
       </c>
     </row>
-    <row r="77" spans="4:13">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:L77" si="5">STDEV(E56:E75)</f>
-        <v>7.1406914009926145E-2</v>
+        <f t="shared" ref="E77:L77" si="6">STDEV(E56:E75)</f>
+        <v>7.1406914009926603E-2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
-        <v>7.2699815391068706E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.269981539106371E-2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
-        <v>7.4641247239533845E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.4641247239536954E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
-        <v>0.14236628075051938</v>
+        <f t="shared" si="6"/>
+        <v>0.14236628075052335</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
-        <v>0.14666108442327411</v>
+        <f t="shared" si="6"/>
+        <v>0.14666108442327341</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
-        <v>0.11800981225930011</v>
+        <f t="shared" si="6"/>
+        <v>0.11800981225929344</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
-        <v>0.102618352724007</v>
+        <f t="shared" si="6"/>
+        <v>0.10261835272401072</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
-        <v>5.9725248121345345E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="4:13" ht="15.75">
+        <f t="shared" si="6"/>
+        <v>5.9725248121358945E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E78">
         <f>E77/SQRT(20)</f>
-        <v>1.5967071378967693E-2</v>
+        <v>1.5967071378967797E-2</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78:L78" si="6">F77/SQRT(20)</f>
-        <v>1.6256172916611508E-2</v>
+        <f t="shared" ref="F78:L78" si="7">F77/SQRT(20)</f>
+        <v>1.6256172916610391E-2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6690290275296619E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6690290275297316E-2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1834068146198109E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.1834068146198997E-2</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="6"/>
-        <v>3.2794415442427644E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.2794415442427491E-2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6387796222378308E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.6387796222376816E-2</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="6"/>
-        <v>2.2946161242993035E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2946161242993868E-2</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="6"/>
-        <v>1.3354971477236979E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="4:13" ht="15.75">
+        <f t="shared" si="7"/>
+        <v>1.335497147724002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D79" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E79">
         <f>E77*$A$1</f>
-        <v>3.3371179182042479E-2</v>
+        <v>3.3371179182042694E-2</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" ref="F79:L79" si="7">F77*$A$1</f>
-        <v>3.3975401395718051E-2</v>
+        <f t="shared" ref="F79:L79" si="8">F77*$A$1</f>
+        <v>3.3975401395715712E-2</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="7"/>
-        <v>3.4882706675369933E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.488270667537139E-2</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="7"/>
-        <v>6.653320242555405E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6533202425555896E-2</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="7"/>
-        <v>6.8540328274673767E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.8540328274673448E-2</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="7"/>
-        <v>5.5150494104770666E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.5150494104767543E-2</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="7"/>
-        <v>4.7957476997855443E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7957476997857185E-2</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="7"/>
-        <v>2.7911890387425285E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="4:13" ht="15.75">
+        <f t="shared" si="8"/>
+        <v>2.7911890387431641E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D80" s="11" t="s">
         <v>24</v>
       </c>
@@ -8001,6 +9134,48 @@
       </c>
       <c r="L80">
         <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D81" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <f>ABS(ABS(MIN(E56:E75)-ABS(MAX(E56:E75))))</f>
+        <v>4.93</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" ref="F81:L81" si="9">ABS(ABS(MIN(F56:F75)-ABS(MAX(F56:F75))))</f>
+        <v>5.16</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="9"/>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="9"/>
+        <v>5.82</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="9"/>
+        <v>5.15</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="9"/>
+        <v>5.24</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="9"/>
+        <v>5.25</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D82" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8011,27 +9186,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="B125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q145" sqref="Q140:S145"/>
+    <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.46733820729745601</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
@@ -8066,7 +9241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -8101,7 +9276,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
@@ -8136,7 +9311,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>3</v>
       </c>
@@ -8171,7 +9346,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>4</v>
       </c>
@@ -8206,7 +9381,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>5</v>
       </c>
@@ -8241,7 +9416,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>6</v>
       </c>
@@ -8276,7 +9451,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>7</v>
       </c>
@@ -8311,7 +9486,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>8</v>
       </c>
@@ -8346,7 +9521,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -8381,7 +9556,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>10</v>
       </c>
@@ -8416,7 +9591,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>11</v>
       </c>
@@ -8451,7 +9626,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="17" spans="4:14">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>12</v>
       </c>
@@ -8486,7 +9661,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="18" spans="4:14">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>13</v>
       </c>
@@ -8521,7 +9696,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="19" spans="4:14">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>14</v>
       </c>
@@ -8556,7 +9731,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="4:14">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>15</v>
       </c>
@@ -8591,7 +9766,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="21" spans="4:14">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>16</v>
       </c>
@@ -8626,7 +9801,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="22" spans="4:14">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>17</v>
       </c>
@@ -8661,7 +9836,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="23" spans="4:14">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>18</v>
       </c>
@@ -8696,7 +9871,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="4:14">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>19</v>
       </c>
@@ -8731,7 +9906,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="25" spans="4:14">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>20</v>
       </c>
@@ -8766,7 +9941,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="26" spans="4:14">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
@@ -8811,13 +9986,13 @@
         <v>1.9775000000000003</v>
       </c>
     </row>
-    <row r="27" spans="4:14">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:N27" si="1">STDEV(E6:E25)</f>
-        <v>0.12143332586888243</v>
+        <v>0.12143332586888554</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
@@ -8833,11 +10008,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>2.5526044491230367E-2</v>
+        <v>2.5526044491233284E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>3.8099592482970748E-2</v>
+        <v>3.8099592482970492E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
@@ -8856,13 +10031,13 @@
         <v>0.21598915664790441</v>
       </c>
     </row>
-    <row r="28" spans="4:14" ht="15.75">
+    <row r="28" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E28">
         <f>E27/SQRT(20)</f>
-        <v>2.7153317137670482E-2</v>
+        <v>2.7153317137671176E-2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ref="F28:N28" si="2">F27/SQRT(20)</f>
@@ -8878,11 +10053,11 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>5.7077970679075135E-3</v>
+        <v>5.7077970679081658E-3</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>8.5193278706962583E-3</v>
+        <v>8.5193278706962011E-3</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
@@ -8901,13 +10076,13 @@
         <v>4.8296643666756484E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:14" ht="15.75">
+    <row r="29" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E29">
         <f>E27*$A$1</f>
-        <v>5.6750432817731303E-2</v>
+        <v>5.675043281773276E-2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ref="F29:N29" si="3">F27*$A$1</f>
@@ -8923,11 +10098,11 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>1.1929295871926702E-2</v>
+        <v>1.1929295871928066E-2</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="3"/>
-        <v>1.780539524975518E-2</v>
+        <v>1.7805395249755062E-2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
@@ -8946,7 +10121,7 @@
         <v>0.10093998526352105</v>
       </c>
     </row>
-    <row r="30" spans="4:14" ht="15.75">
+    <row r="30" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="11" t="s">
         <v>24</v>
       </c>
@@ -8981,13 +10156,67 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="103" spans="4:13" ht="18.75">
+    <row r="31" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <f>ABS(ABS(MIN(E6:E25)-ABS(MAX(E6:E25))))</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:N31" si="4">ABS(ABS(MIN(F6:F25)-ABS(MAX(F6:F25))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.87</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.76000000000000023</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <f>MAX(E31:N31)</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H103" s="5"/>
     </row>
-    <row r="105" spans="4:13">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105" s="7" t="s">
         <v>0</v>
       </c>
@@ -9019,7 +10248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="4:13">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>1</v>
       </c>
@@ -9051,7 +10280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="4:13">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>2</v>
       </c>
@@ -9083,7 +10312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="4:13">
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108" s="1">
         <v>3</v>
       </c>
@@ -9115,7 +10344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="4:13">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109" s="1">
         <v>4</v>
       </c>
@@ -9147,7 +10376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="4:13">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D110" s="1">
         <v>5</v>
       </c>
@@ -9179,7 +10408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="4:13">
+    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D111" s="1">
         <v>6</v>
       </c>
@@ -9211,7 +10440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="4:13">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D112" s="1">
         <v>7</v>
       </c>
@@ -9243,7 +10472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="4:13">
+    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D113" s="1">
         <v>8</v>
       </c>
@@ -9275,7 +10504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="4:13">
+    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D114" s="1">
         <v>9</v>
       </c>
@@ -9307,7 +10536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="4:13">
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D115" s="1">
         <v>10</v>
       </c>
@@ -9339,7 +10568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="4:13">
+    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D116" s="1">
         <v>11</v>
       </c>
@@ -9371,7 +10600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="4:13">
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D117" s="1">
         <v>12</v>
       </c>
@@ -9403,7 +10632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="4:13">
+    <row r="118" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D118" s="1">
         <v>13</v>
       </c>
@@ -9435,7 +10664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="4:13">
+    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D119" s="1">
         <v>14</v>
       </c>
@@ -9467,7 +10696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="4:13">
+    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D120" s="1">
         <v>15</v>
       </c>
@@ -9499,7 +10728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="4:13">
+    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D121" s="1">
         <v>16</v>
       </c>
@@ -9531,7 +10760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="4:13">
+    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D122" s="1">
         <v>17</v>
       </c>
@@ -9563,7 +10792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="4:13">
+    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D123" s="1">
         <v>18</v>
       </c>
@@ -9595,7 +10824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="4:13">
+    <row r="124" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D124" s="1">
         <v>19</v>
       </c>
@@ -9627,7 +10856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="4:13">
+    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D125" s="1">
         <v>20</v>
       </c>
@@ -9659,155 +10888,155 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="4:13">
+    <row r="126" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D126" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E126">
-        <f t="shared" ref="E126:L126" si="4">AVERAGE(E106:E125)</f>
+        <f t="shared" ref="E126:L126" si="5">AVERAGE(E106:E125)</f>
         <v>-2.6324999999999994</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.7290000000000001</v>
       </c>
       <c r="G126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.0860000000000007</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.149</v>
       </c>
       <c r="I126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.7919999999999998</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6634999999999991</v>
       </c>
       <c r="L126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5274999999999999</v>
       </c>
     </row>
-    <row r="127" spans="4:13">
+    <row r="127" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D127" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E127">
-        <f t="shared" ref="E127:L127" si="5">STDEV(E106:E125)</f>
-        <v>5.1694955470122518E-2</v>
+        <f t="shared" ref="E127:L127" si="6">STDEV(E106:E125)</f>
+        <v>5.1694955470071129E-2</v>
       </c>
       <c r="F127">
-        <f t="shared" si="5"/>
-        <v>6.5123364713268059E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.5123364713280465E-2</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
-        <v>6.691707358245258E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6917073582473022E-2</v>
       </c>
       <c r="H127">
-        <f t="shared" si="5"/>
-        <v>8.2391874918800345E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2391874918778155E-2</v>
       </c>
       <c r="I127">
-        <f t="shared" si="5"/>
-        <v>0.14996841772783839</v>
+        <f t="shared" si="6"/>
+        <v>0.14996841772783184</v>
       </c>
       <c r="J127">
-        <f t="shared" si="5"/>
-        <v>8.3816842924881715E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.3816842924884435E-2</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
-        <v>7.7546251054688736E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.7546251054654958E-2</v>
       </c>
       <c r="L127">
-        <f t="shared" si="5"/>
-        <v>6.9651387563160222E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="4:13" ht="15.75">
+        <f t="shared" si="6"/>
+        <v>6.9651387563161152E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D128" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E128">
         <f>E127/SQRT(20)</f>
-        <v>1.1559343452501855E-2</v>
+        <v>1.1559343452490363E-2</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" ref="F128:L128" si="6">F127/SQRT(20)</f>
-        <v>1.4562027042237847E-2</v>
+        <f t="shared" ref="F128:L128" si="7">F127/SQRT(20)</f>
+        <v>1.4562027042240621E-2</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4963112538571934E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4963112538576505E-2</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="6"/>
-        <v>1.8423383311209754E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.8423383311204789E-2</v>
       </c>
       <c r="I128" s="1">
-        <f t="shared" si="6"/>
-        <v>3.353395765175312E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.3533957651751656E-2</v>
       </c>
       <c r="J128" s="1">
-        <f t="shared" si="6"/>
-        <v>1.8742015843945782E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.8742015843946389E-2</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7339868875854876E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.7339868875847323E-2</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5574523731840968E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="4:12" ht="15.75">
+        <f t="shared" si="7"/>
+        <v>1.5574523731841176E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D129" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E129">
         <f>E127*$A$1</f>
-        <v>2.4159027815728876E-2</v>
+        <v>2.4159027815704857E-2</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" ref="F129:L129" si="7">F127*$A$1</f>
-        <v>3.0434636518277099E-2</v>
+        <f t="shared" ref="F129:L129" si="8">F127*$A$1</f>
+        <v>3.0434636518282897E-2</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="7"/>
-        <v>3.1272905205615341E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1272905205624896E-2</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8504871120428386E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.8504871120418012E-2</v>
       </c>
       <c r="I129" s="1">
-        <f t="shared" si="7"/>
-        <v>7.0085971492164015E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.0085971492160948E-2</v>
       </c>
       <c r="J129" s="1">
-        <f t="shared" si="7"/>
-        <v>3.9170813113846681E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.9170813113847951E-2</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="7"/>
-        <v>3.6240325950536695E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.6240325950520902E-2</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="7"/>
-        <v>3.2550754599547621E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="4:12" ht="15.75">
+        <f t="shared" si="8"/>
+        <v>3.2550754599548058E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D130" s="11" t="s">
         <v>24</v>
       </c>
@@ -9843,28 +11072,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.46733820729745601</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
@@ -9899,7 +11128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -9934,7 +11163,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
@@ -9969,7 +11198,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -10004,7 +11233,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -10039,7 +11268,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -10074,7 +11303,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -10109,7 +11338,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -10144,7 +11373,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -10179,7 +11408,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -10214,7 +11443,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -10249,7 +11478,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -10284,7 +11513,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -10319,7 +11548,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -10354,7 +11583,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -10389,7 +11618,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -10424,7 +11653,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -10459,7 +11688,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -10494,7 +11723,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -10529,7 +11758,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -10564,7 +11793,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -10599,7 +11828,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
@@ -10644,17 +11873,17 @@
         <v>3.7634999999999996</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28">
         <f>STDEV(D7:D26)</f>
-        <v>0.14475023861447461</v>
+        <v>0.14475023861447475</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ref="E28:M28" si="1">STDEV(E7:E26)</f>
-        <v>0.15401298646542738</v>
+        <v>0.15401298646542766</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -10689,17 +11918,17 @@
         <v>0.40218187820672957</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="15.75">
+    <row r="29" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D29">
         <f>D28/SQRT(20)</f>
-        <v>3.2367137330128019E-2</v>
+        <v>3.2367137330128047E-2</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ref="E29:M29" si="2">E28/SQRT(20)</f>
-        <v>3.4438350715445064E-2</v>
+        <v>3.4438350715445126E-2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
@@ -10734,17 +11963,17 @@
         <v>8.9930601898878845E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="15.75">
+    <row r="30" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D30">
         <f>D28*$A$1</f>
-        <v>6.7647317019967554E-2</v>
+        <v>6.7647317019967623E-2</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ref="E30:M30" si="3">E28*$A$1</f>
-        <v>7.1976152995280193E-2</v>
+        <v>7.1976152995280318E-2</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
@@ -10779,7 +12008,7 @@
         <v>0.1879549579686568</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15.75">
+    <row r="31" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
@@ -10814,13 +12043,67 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="74" spans="4:13" ht="18.75">
+    <row r="32" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <f>ABS(ABS(MIN(D7:D26)-ABS(MAX(D7:D26))))</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:M32" si="4">ABS(ABS(MIN(E7:E26)-ABS(MAX(E7:E26))))</f>
+        <v>0.54</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.66</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <f>MAX(D32:M32)</f>
+        <v>1.3999999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="76" spans="4:13">
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="7" t="s">
         <v>0</v>
       </c>
@@ -10852,7 +12135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="4:13">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>1</v>
       </c>
@@ -10884,7 +12167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="4:13">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>2</v>
       </c>
@@ -10916,7 +12199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="4:13">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
         <v>3</v>
       </c>
@@ -10948,7 +12231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="4:13">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="1">
         <v>4</v>
       </c>
@@ -10977,7 +12260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="4:13">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="1">
         <v>5</v>
       </c>
@@ -11009,7 +12292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="4:13">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="1">
         <v>6</v>
       </c>
@@ -11041,7 +12324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="4:13">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="1">
         <v>7</v>
       </c>
@@ -11073,7 +12356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="4:13">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <v>8</v>
       </c>
@@ -11105,7 +12388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="4:13">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
         <v>9</v>
       </c>
@@ -11137,7 +12420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="4:13">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
         <v>10</v>
       </c>
@@ -11169,7 +12452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="4:13">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87" s="1">
         <v>11</v>
       </c>
@@ -11201,7 +12484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="4:13">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88" s="1">
         <v>12</v>
       </c>
@@ -11233,7 +12516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="4:13">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <v>13</v>
       </c>
@@ -11265,7 +12548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="4:13">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D90" s="1">
         <v>14</v>
       </c>
@@ -11297,7 +12580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="4:13">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D91" s="1">
         <v>15</v>
       </c>
@@ -11329,7 +12612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="4:13">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D92" s="1">
         <v>16</v>
       </c>
@@ -11361,7 +12644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="4:13">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D93" s="1">
         <v>17</v>
       </c>
@@ -11393,7 +12676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="4:13">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D94" s="1">
         <v>18</v>
       </c>
@@ -11425,7 +12708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="4:13">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D95" s="1">
         <v>19</v>
       </c>
@@ -11457,7 +12740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="4:13">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D96" s="1">
         <v>20</v>
       </c>
@@ -11489,123 +12772,123 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="4:11">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97:K97" si="4">AVERAGE(F77:F96)</f>
+        <f t="shared" ref="F97:K97" si="5">AVERAGE(F77:F96)</f>
         <v>-2.8220000000000001</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.2510000000000003</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.2590000000000003</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.0159999999999996</v>
       </c>
       <c r="J97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.1209999999999996</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6019999999999999</v>
       </c>
     </row>
-    <row r="98" spans="4:11">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D98" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:K98" si="5">STDEV(F77:F96)</f>
-        <v>0.11817026075250883</v>
+        <f t="shared" ref="F98:K98" si="6">STDEV(F77:F96)</f>
+        <v>0.11817026075250819</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="5"/>
-        <v>0.19584902885963382</v>
+        <f t="shared" si="6"/>
+        <v>0.19584902885963756</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="5"/>
-        <v>0.21983007791904546</v>
+        <f t="shared" si="6"/>
+        <v>0.21983007791904804</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11329514320431033</v>
+        <f t="shared" si="6"/>
+        <v>0.11329514320430603</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="5"/>
-        <v>9.5801329515021919E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.5801329515002642E-2</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="5"/>
-        <v>9.4679514818761024E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="4:11" ht="15.75">
+        <f t="shared" si="6"/>
+        <v>9.4679514818759997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D99" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F99">
         <f>F98/SQRT(20)</f>
-        <v>2.6423673596148518E-2</v>
+        <v>2.6423673596148375E-2</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" ref="G99:K99" si="6">G98/SQRT(20)</f>
-        <v>4.379317418574593E-2</v>
+        <f t="shared" ref="G99:K99" si="7">G98/SQRT(20)</f>
+        <v>4.3793174185746769E-2</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="6"/>
-        <v>4.9155499772606116E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.9155499772606692E-2</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" si="6"/>
-        <v>2.5333564172541123E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.5333564172540162E-2</v>
       </c>
       <c r="J99" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1421828513044597E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.1421828513040284E-2</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1170983121144831E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="4:11" ht="15.75">
+        <f t="shared" si="7"/>
+        <v>2.1170983121144602E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D100" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F100">
         <f>F98*$A$1</f>
-        <v>5.52254778159504E-2</v>
+        <v>5.5225477815950101E-2</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ref="G100:K100" si="7">G98*$A$1</f>
-        <v>9.1527734048208992E-2</v>
+        <f t="shared" ref="G100:K100" si="8">G98*$A$1</f>
+        <v>9.152773404821074E-2</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="7"/>
-        <v>0.10273499452474677</v>
+        <f t="shared" si="8"/>
+        <v>0.10273499452474798</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="7"/>
-        <v>5.2947149120610944E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.2947149120608938E-2</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="7"/>
-        <v>4.4771621592263201E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.4771621592254195E-2</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="7"/>
-        <v>4.4247354723192696E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="4:11" ht="15.75">
+        <f t="shared" si="8"/>
+        <v>4.4247354723192217E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D101" s="11" t="s">
         <v>24</v>
       </c>
@@ -11635,16 +12918,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G24:N24"/>
   <sheetViews>
     <sheetView topLeftCell="C96" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="24" spans="7:14" ht="31.5">
+    <row r="24" spans="7:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="G24" s="16" t="s">
         <v>29</v>
       </c>
@@ -11662,16 +12945,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:13" ht="23.25">
+    <row r="2" spans="3:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
@@ -11680,7 +12963,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -11715,7 +12998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
@@ -11750,7 +13033,7 @@
         <v>0.21902355076446389</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
@@ -11785,7 +13068,7 @@
         <v>0.21598915664790441</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="nF18Fräs" sheetId="4" r:id="rId3"/>
     <sheet name="Gegenüberstelungen FräsBieg" sheetId="2" r:id="rId4"/>
     <sheet name="LaborVergleich" sheetId="5" r:id="rId5"/>
+    <sheet name="nF13fräs" sheetId="6" r:id="rId6"/>
+    <sheet name="Vergl.Fäs" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="40">
   <si>
     <t>Nr/MP</t>
   </si>
@@ -201,15 +203,36 @@
   <si>
     <t>max Range</t>
   </si>
+  <si>
+    <t>nF13 Fräs Kontur aussen</t>
+  </si>
+  <si>
+    <t>Mittelw.</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>nF13</t>
+  </si>
+  <si>
+    <t>nF17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>Vergl. Standardab. Fräs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +344,20 @@
       <name val="MS Reference Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -387,12 +424,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -412,12 +508,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -429,17 +573,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -458,29 +593,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -495,7 +616,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -574,50 +694,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="104507648"/>
-        <c:axId val="104621952"/>
+        <c:axId val="56953472"/>
+        <c:axId val="56971648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="104507648"/>
+        <c:axId val="56953472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104621952"/>
+        <c:crossAx val="56971648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104621952"/>
+        <c:axId val="56971648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104507648"/>
+        <c:crossAx val="56953472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,15 +730,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -641,17 +744,8 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -677,29 +771,15 @@
           <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -714,7 +794,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -793,50 +872,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="181386624"/>
-        <c:axId val="181396608"/>
+        <c:axId val="65557632"/>
+        <c:axId val="65559168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="181386624"/>
+        <c:axId val="65557632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181396608"/>
+        <c:crossAx val="65559168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181396608"/>
+        <c:axId val="65559168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181386624"/>
+        <c:crossAx val="65557632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -844,15 +908,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -860,17 +922,8 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -888,30 +941,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -926,7 +964,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$F$76:$K$76</c:f>
@@ -981,66 +1018,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="181421568"/>
-        <c:axId val="181423104"/>
+        <c:axId val="65588224"/>
+        <c:axId val="65598208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="181421568"/>
+        <c:axId val="65588224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181423104"/>
+        <c:crossAx val="65598208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181423104"/>
+        <c:axId val="65598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181421568"/>
+        <c:crossAx val="65588224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1048,17 +1067,8 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1080,33 +1090,19 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17658333333333343"/>
+          <c:x val="0.17658333333333345"/>
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1121,7 +1117,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$F$76:$K$76</c:f>
@@ -1176,66 +1171,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="181448064"/>
-        <c:axId val="181449856"/>
+        <c:axId val="65627264"/>
+        <c:axId val="65628800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="181448064"/>
+        <c:axId val="65627264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181449856"/>
+        <c:crossAx val="65628800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181449856"/>
+        <c:axId val="65628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181448064"/>
+        <c:crossAx val="65627264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1243,17 +1220,8 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1271,29 +1239,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1308,7 +1263,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>[1]nFxxKonturAussen!$D$6:$M$6</c:f>
@@ -1387,61 +1341,45 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="225425280"/>
-        <c:axId val="225426816"/>
+        <c:axId val="65686912"/>
+        <c:axId val="65721472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="225425280"/>
+        <c:axId val="65686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225426816"/>
+        <c:crossAx val="65721472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225426816"/>
+        <c:axId val="65721472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225425280"/>
+        <c:crossAx val="65686912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1453,17 +1391,8 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1481,29 +1410,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1518,7 +1434,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -1597,65 +1512,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="226447360"/>
-        <c:axId val="226448896"/>
+        <c:axId val="66020864"/>
+        <c:axId val="66022400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="226447360"/>
+        <c:axId val="66020864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226448896"/>
+        <c:crossAx val="66022400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226448896"/>
+        <c:axId val="66022400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226447360"/>
+        <c:crossAx val="66020864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1663,17 +1562,8 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1699,29 +1589,15 @@
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1736,7 +1612,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -1815,65 +1690,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="226465664"/>
-        <c:axId val="226467200"/>
+        <c:axId val="66039168"/>
+        <c:axId val="66049152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="226465664"/>
+        <c:axId val="66039168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226467200"/>
+        <c:crossAx val="66049152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226467200"/>
+        <c:axId val="66049152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226465664"/>
+        <c:crossAx val="66039168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1881,17 +1740,8 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1909,29 +1759,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1946,7 +1783,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>[1]nFxxKonturAussen!$D$6:$M$6</c:f>
@@ -2025,61 +1861,45 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231153664"/>
-        <c:axId val="231155200"/>
+        <c:axId val="67130880"/>
+        <c:axId val="67132416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231153664"/>
+        <c:axId val="67130880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231155200"/>
+        <c:crossAx val="67132416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231155200"/>
+        <c:axId val="67132416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231153664"/>
+        <c:crossAx val="67130880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2091,17 +1911,8 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2119,29 +1930,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2156,7 +1954,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -2235,65 +2032,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231176064"/>
-        <c:axId val="231177600"/>
+        <c:axId val="67161472"/>
+        <c:axId val="67179648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231176064"/>
+        <c:axId val="67161472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231177600"/>
+        <c:crossAx val="67179648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231177600"/>
+        <c:axId val="67179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231176064"/>
+        <c:crossAx val="67161472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2301,17 +2082,8 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2329,29 +2101,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2366,7 +2125,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -2445,65 +2203,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231198720"/>
-        <c:axId val="231200256"/>
+        <c:axId val="67204608"/>
+        <c:axId val="67206144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231198720"/>
+        <c:axId val="67204608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231200256"/>
+        <c:crossAx val="67206144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231200256"/>
+        <c:axId val="67206144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231198720"/>
+        <c:crossAx val="67204608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2511,17 +2253,8 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2539,29 +2272,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2576,7 +2296,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -2655,65 +2374,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231237504"/>
-        <c:axId val="231239040"/>
+        <c:axId val="67235200"/>
+        <c:axId val="67503232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231237504"/>
+        <c:axId val="67235200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231239040"/>
+        <c:crossAx val="67503232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231239040"/>
+        <c:axId val="67503232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231237504"/>
+        <c:crossAx val="67235200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2721,17 +2424,8 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2757,29 +2451,15 @@
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2794,7 +2474,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$5:$N$5</c:f>
@@ -2873,66 +2552,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="108845312"/>
-        <c:axId val="108908928"/>
+        <c:axId val="57008896"/>
+        <c:axId val="57010432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="108845312"/>
+        <c:axId val="57008896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108908928"/>
+        <c:crossAx val="57010432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108908928"/>
+        <c:axId val="57010432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108845312"/>
+        <c:crossAx val="57008896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2940,17 +2601,8 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2976,29 +2628,15 @@
           <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3013,7 +2651,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -3092,65 +2729,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231256064"/>
-        <c:axId val="231257600"/>
+        <c:axId val="67548672"/>
+        <c:axId val="67550208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231256064"/>
+        <c:axId val="67548672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231257600"/>
+        <c:crossAx val="67550208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231257600"/>
+        <c:axId val="67550208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231256064"/>
+        <c:crossAx val="67548672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3158,17 +2779,8 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3186,29 +2798,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3223,7 +2822,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]nF17 KonturAussen'!$E$5:$N$5</c:f>
@@ -3302,65 +2900,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231266176"/>
-        <c:axId val="231267712"/>
+        <c:axId val="67575168"/>
+        <c:axId val="67589248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231266176"/>
+        <c:axId val="67575168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231267712"/>
+        <c:crossAx val="67589248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231267712"/>
+        <c:axId val="67589248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231266176"/>
+        <c:crossAx val="67575168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3368,17 +2950,8 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3396,29 +2969,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3433,7 +2993,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]nF17 KonturAussen'!$E$5:$N$5</c:f>
@@ -3512,65 +3071,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231362560"/>
-        <c:axId val="231364096"/>
+        <c:axId val="67618304"/>
+        <c:axId val="67619840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231362560"/>
+        <c:axId val="67618304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231364096"/>
+        <c:crossAx val="67619840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231364096"/>
+        <c:axId val="67619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231362560"/>
+        <c:crossAx val="67618304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3578,17 +3121,8 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3606,29 +3140,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3643,7 +3164,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]F18 Kontur aussen'!$E$6:$N$6</c:f>
@@ -3722,65 +3242,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231384960"/>
-        <c:axId val="231386496"/>
+        <c:axId val="67911040"/>
+        <c:axId val="67925120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231384960"/>
+        <c:axId val="67911040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231386496"/>
+        <c:crossAx val="67925120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231386496"/>
+        <c:axId val="67925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231384960"/>
+        <c:crossAx val="67911040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3788,17 +3292,8 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3824,29 +3319,15 @@
           <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3861,7 +3342,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]F18 Kontur aussen'!$E$6:$N$6</c:f>
@@ -3940,65 +3420,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231419904"/>
-        <c:axId val="231421440"/>
+        <c:axId val="67958272"/>
+        <c:axId val="67959808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231419904"/>
+        <c:axId val="67958272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231421440"/>
+        <c:crossAx val="67959808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231421440"/>
+        <c:axId val="67959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231419904"/>
+        <c:crossAx val="67958272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4006,17 +3470,7 @@
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4035,29 +3489,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4072,7 +3512,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>LaborVergleich!$D$4:$M$4</c:f>
@@ -4165,7 +3604,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>LaborVergleich!$D$4:$M$4</c:f>
@@ -4258,7 +3696,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>LaborVergleich!$D$4:$M$4</c:f>
@@ -4337,50 +3774,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="231436288"/>
-        <c:axId val="231437824"/>
+        <c:axId val="68020480"/>
+        <c:axId val="68034560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231436288"/>
+        <c:axId val="68020480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231437824"/>
+        <c:crossAx val="68034560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231437824"/>
+        <c:axId val="68034560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231436288"/>
+        <c:crossAx val="68020480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4388,15 +3810,848 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="5"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nF13fräs!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardab.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>nF13fräs!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nF13fräs!$D$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="111419392"/>
+        <c:axId val="111420928"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="111419392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111420928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111420928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111419392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standardab. Fräs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14475023861447475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15401298646542766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7141747805092262E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6137289353275334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.366028258614094E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1884410139143637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6052030071259679E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14869962658785785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29006532839490162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40218187820672957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="69260800"/>
+        <c:axId val="69262336"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="69260800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69262336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69262336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69260800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="142684160"/>
+        <c:axId val="142686464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="142684160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142686464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142686464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142684160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4404,17 +4659,8 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4432,30 +4678,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4470,7 +4701,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$55:$L$55</c:f>
@@ -4537,66 +4767,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="125548032"/>
-        <c:axId val="125586432"/>
+        <c:axId val="57105024"/>
+        <c:axId val="57131392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="125548032"/>
+        <c:axId val="57105024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125586432"/>
+        <c:crossAx val="57131392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125586432"/>
+        <c:axId val="57131392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125548032"/>
+        <c:crossAx val="57105024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4604,17 +4816,8 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4632,30 +4835,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4670,7 +4858,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nFxxFräs!$E$55:$L$55</c:f>
@@ -4737,66 +4924,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="128518400"/>
-        <c:axId val="164722176"/>
+        <c:axId val="57414400"/>
+        <c:axId val="57415936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="128518400"/>
+        <c:axId val="57414400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164722176"/>
+        <c:crossAx val="57415936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164722176"/>
+        <c:axId val="57415936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128518400"/>
+        <c:crossAx val="57414400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4804,17 +4973,8 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4832,30 +4992,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4870,7 +5015,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -4949,66 +5093,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="177644288"/>
-        <c:axId val="177665536"/>
+        <c:axId val="57875456"/>
+        <c:axId val="57893632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="177644288"/>
+        <c:axId val="57875456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177665536"/>
+        <c:crossAx val="57893632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177665536"/>
+        <c:axId val="57893632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177644288"/>
+        <c:crossAx val="57875456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5016,17 +5142,8 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5044,30 +5161,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5082,7 +5184,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$5:$N$5</c:f>
@@ -5161,66 +5262,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="179630464"/>
-        <c:axId val="179633536"/>
+        <c:axId val="57926784"/>
+        <c:axId val="57928320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="179630464"/>
+        <c:axId val="57926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179633536"/>
+        <c:crossAx val="57928320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179633536"/>
+        <c:axId val="57928320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179630464"/>
+        <c:crossAx val="57926784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5228,17 +5311,8 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5256,30 +5330,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5294,7 +5353,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$105:$L$105</c:f>
@@ -5361,66 +5419,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="180656000"/>
-        <c:axId val="180916224"/>
+        <c:axId val="65149952"/>
+        <c:axId val="65172224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="180656000"/>
+        <c:axId val="65149952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180916224"/>
+        <c:crossAx val="65172224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180916224"/>
+        <c:axId val="65172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180656000"/>
+        <c:crossAx val="65149952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5428,17 +5468,8 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5456,30 +5487,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5494,7 +5510,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF17fräs!$E$105:$L$105</c:f>
@@ -5561,66 +5576,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="182641408"/>
-        <c:axId val="182642944"/>
+        <c:axId val="65196800"/>
+        <c:axId val="65198336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="182641408"/>
+        <c:axId val="65196800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182642944"/>
+        <c:crossAx val="65198336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182642944"/>
+        <c:axId val="65198336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182641408"/>
+        <c:crossAx val="65196800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5628,17 +5625,8 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5657,29 +5645,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5694,7 +5668,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>nF18Fräs!$D$6:$M$6</c:f>
@@ -5773,50 +5746,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="232621184"/>
-        <c:axId val="232622720"/>
+        <c:axId val="65534976"/>
+        <c:axId val="65540864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="232621184"/>
+        <c:axId val="65534976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232622720"/>
+        <c:crossAx val="65540864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232622720"/>
+        <c:axId val="65540864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232621184"/>
+        <c:crossAx val="65534976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5824,15 +5782,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6613,8 +6569,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Kontur aussen F17Chr1"/>
@@ -6969,8 +7025,28 @@
 </externalLink>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M26" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="C4:M26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr/MP"/>
+    <tableColumn id="2" name="MP1a"/>
+    <tableColumn id="3" name="MP2a"/>
+    <tableColumn id="4" name="MP3a"/>
+    <tableColumn id="5" name="MP4a"/>
+    <tableColumn id="6" name="MP5a"/>
+    <tableColumn id="7" name="MP6a"/>
+    <tableColumn id="8" name="MP7a"/>
+    <tableColumn id="9" name="MP8a"/>
+    <tableColumn id="10" name="MP9a"/>
+    <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -7044,7 +7120,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7079,7 +7154,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -7255,29 +7329,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:N31"/>
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>0.46733820729745601</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
@@ -7312,7 +7386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="D6">
         <v>1</v>
       </c>
@@ -7347,7 +7421,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="D7">
         <v>2</v>
       </c>
@@ -7382,7 +7456,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="D8" s="1">
         <v>3</v>
       </c>
@@ -7417,7 +7491,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="D9" s="1">
         <v>4</v>
       </c>
@@ -7452,7 +7526,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="D10" s="1">
         <v>5</v>
       </c>
@@ -7487,7 +7561,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="D11" s="1">
         <v>6</v>
       </c>
@@ -7522,7 +7596,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="D12" s="1">
         <v>7</v>
       </c>
@@ -7557,7 +7631,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="D13" s="1">
         <v>8</v>
       </c>
@@ -7592,7 +7666,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -7627,7 +7701,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="D15" s="1">
         <v>10</v>
       </c>
@@ -7662,7 +7736,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="D16" s="1">
         <v>11</v>
       </c>
@@ -7697,7 +7771,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14">
       <c r="D17" s="1">
         <v>12</v>
       </c>
@@ -7732,7 +7806,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14">
       <c r="D18" s="1">
         <v>13</v>
       </c>
@@ -7767,7 +7841,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14">
       <c r="D19" s="1">
         <v>14</v>
       </c>
@@ -7802,7 +7876,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14">
       <c r="D20" s="1">
         <v>15</v>
       </c>
@@ -7837,7 +7911,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14">
       <c r="D21" s="1">
         <v>16</v>
       </c>
@@ -7872,7 +7946,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14">
       <c r="D22" s="1">
         <v>17</v>
       </c>
@@ -7907,7 +7981,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14">
       <c r="D23" s="1">
         <v>18</v>
       </c>
@@ -7942,7 +8016,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:14">
       <c r="D24" s="1">
         <v>19</v>
       </c>
@@ -7977,7 +8051,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:14">
       <c r="D25" s="1">
         <v>20</v>
       </c>
@@ -8012,7 +8086,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:14">
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
@@ -8057,7 +8131,7 @@
         <v>0.7034999999999999</v>
       </c>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:14">
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
@@ -8102,7 +8176,7 @@
         <v>0.21902355076446389</v>
       </c>
     </row>
-    <row r="28" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:14" ht="15.75">
       <c r="D28" s="11" t="s">
         <v>22</v>
       </c>
@@ -8147,7 +8221,7 @@
         <v>4.8975154818271728E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:14" ht="15.75">
       <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
@@ -8192,7 +8266,7 @@
         <v>0.1023580735701879</v>
       </c>
     </row>
-    <row r="30" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" ht="15.75">
       <c r="D30" s="11" t="s">
         <v>24</v>
       </c>
@@ -8227,7 +8301,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" ht="15.75">
       <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
@@ -8272,7 +8346,7 @@
         <v>1.0699999999999998</v>
       </c>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14">
       <c r="D32" s="18" t="s">
         <v>32</v>
       </c>
@@ -8281,13 +8355,13 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" ht="18.75">
       <c r="G52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:13">
       <c r="D55" s="7" t="s">
         <v>0</v>
       </c>
@@ -8319,7 +8393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:13">
       <c r="D56">
         <v>1</v>
       </c>
@@ -8351,7 +8425,7 @@
         <v>-2.4500000000000002</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:13">
       <c r="D57">
         <v>2</v>
       </c>
@@ -8383,7 +8457,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:13">
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -8415,7 +8489,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:13">
       <c r="D59" s="1">
         <v>4</v>
       </c>
@@ -8447,7 +8521,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:13">
       <c r="D60" s="1">
         <v>5</v>
       </c>
@@ -8479,7 +8553,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:13">
       <c r="D61" s="1">
         <v>6</v>
       </c>
@@ -8511,7 +8585,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:13">
       <c r="D62" s="1">
         <v>7</v>
       </c>
@@ -8543,7 +8617,7 @@
         <v>-2.41</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:13">
       <c r="D63" s="1">
         <v>8</v>
       </c>
@@ -8575,7 +8649,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:13">
       <c r="D64" s="1">
         <v>9</v>
       </c>
@@ -8607,7 +8681,7 @@
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:13">
       <c r="D65" s="1">
         <v>10</v>
       </c>
@@ -8639,7 +8713,7 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:13">
       <c r="D66" s="1">
         <v>11</v>
       </c>
@@ -8671,7 +8745,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:13">
       <c r="D67" s="1">
         <v>12</v>
       </c>
@@ -8703,7 +8777,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:13">
       <c r="D68" s="1">
         <v>13</v>
       </c>
@@ -8735,7 +8809,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:13">
       <c r="D69" s="1">
         <v>14</v>
       </c>
@@ -8767,7 +8841,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:13">
       <c r="D70" s="1">
         <v>15</v>
       </c>
@@ -8799,7 +8873,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:13">
       <c r="D71" s="1">
         <v>16</v>
       </c>
@@ -8831,7 +8905,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:13">
       <c r="D72" s="1">
         <v>17</v>
       </c>
@@ -8863,7 +8937,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:13">
       <c r="D73" s="1">
         <v>18</v>
       </c>
@@ -8895,7 +8969,7 @@
         <v>-2.94</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:13">
       <c r="D74" s="1">
         <v>19</v>
       </c>
@@ -8927,7 +9001,7 @@
         <v>-2.66</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:13">
       <c r="D75" s="1">
         <v>20</v>
       </c>
@@ -8959,7 +9033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:13">
       <c r="D76" s="6" t="s">
         <v>11</v>
       </c>
@@ -8996,7 +9070,7 @@
         <v>-2.4175</v>
       </c>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:13">
       <c r="D77" s="6" t="s">
         <v>12</v>
       </c>
@@ -9033,7 +9107,7 @@
         <v>5.9725248121358945E-2</v>
       </c>
     </row>
-    <row r="78" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:13" ht="15.75">
       <c r="D78" s="11" t="s">
         <v>22</v>
       </c>
@@ -9070,7 +9144,7 @@
         <v>1.335497147724002E-2</v>
       </c>
     </row>
-    <row r="79" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:13" ht="15.75">
       <c r="D79" s="11" t="s">
         <v>23</v>
       </c>
@@ -9107,7 +9181,7 @@
         <v>2.7911890387431641E-2</v>
       </c>
     </row>
-    <row r="80" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:13" ht="15.75">
       <c r="D80" s="11" t="s">
         <v>24</v>
       </c>
@@ -9136,7 +9210,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" ht="15.75">
       <c r="D81" s="11" t="s">
         <v>31</v>
       </c>
@@ -9173,7 +9247,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12">
       <c r="D82" s="18" t="s">
         <v>32</v>
       </c>
@@ -9186,27 +9260,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:N31"/>
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1">
         <v>0.46733820729745601</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
@@ -9241,7 +9315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="D6">
         <v>1</v>
       </c>
@@ -9276,7 +9350,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="D7">
         <v>2</v>
       </c>
@@ -9311,7 +9385,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="D8" s="1">
         <v>3</v>
       </c>
@@ -9346,7 +9420,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="D9" s="1">
         <v>4</v>
       </c>
@@ -9381,7 +9455,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="D10" s="1">
         <v>5</v>
       </c>
@@ -9416,7 +9490,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="D11" s="1">
         <v>6</v>
       </c>
@@ -9451,7 +9525,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="D12" s="1">
         <v>7</v>
       </c>
@@ -9486,7 +9560,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="D13" s="1">
         <v>8</v>
       </c>
@@ -9521,7 +9595,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -9556,7 +9630,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="D15" s="1">
         <v>10</v>
       </c>
@@ -9591,7 +9665,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="D16" s="1">
         <v>11</v>
       </c>
@@ -9626,7 +9700,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14">
       <c r="D17" s="1">
         <v>12</v>
       </c>
@@ -9661,7 +9735,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14">
       <c r="D18" s="1">
         <v>13</v>
       </c>
@@ -9696,7 +9770,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14">
       <c r="D19" s="1">
         <v>14</v>
       </c>
@@ -9731,7 +9805,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14">
       <c r="D20" s="1">
         <v>15</v>
       </c>
@@ -9766,7 +9840,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14">
       <c r="D21" s="1">
         <v>16</v>
       </c>
@@ -9801,7 +9875,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14">
       <c r="D22" s="1">
         <v>17</v>
       </c>
@@ -9836,7 +9910,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14">
       <c r="D23" s="1">
         <v>18</v>
       </c>
@@ -9871,7 +9945,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:14">
       <c r="D24" s="1">
         <v>19</v>
       </c>
@@ -9906,7 +9980,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:14">
       <c r="D25" s="1">
         <v>20</v>
       </c>
@@ -9941,7 +10015,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:14">
       <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
@@ -9986,7 +10060,7 @@
         <v>1.9775000000000003</v>
       </c>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:14">
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
@@ -10031,7 +10105,7 @@
         <v>0.21598915664790441</v>
       </c>
     </row>
-    <row r="28" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:14" ht="15.75">
       <c r="D28" s="11" t="s">
         <v>22</v>
       </c>
@@ -10076,7 +10150,7 @@
         <v>4.8296643666756484E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:14" ht="15.75">
       <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
@@ -10121,7 +10195,7 @@
         <v>0.10093998526352105</v>
       </c>
     </row>
-    <row r="30" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" ht="15.75">
       <c r="D30" s="11" t="s">
         <v>24</v>
       </c>
@@ -10156,7 +10230,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" ht="15.75">
       <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
@@ -10201,7 +10275,7 @@
         <v>0.76000000000000023</v>
       </c>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14">
       <c r="D32" s="18" t="s">
         <v>32</v>
       </c>
@@ -10210,13 +10284,13 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="103" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:13" ht="18.75">
       <c r="G103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H103" s="5"/>
     </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:13">
       <c r="D105" s="7" t="s">
         <v>0</v>
       </c>
@@ -10248,7 +10322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:13">
       <c r="D106">
         <v>1</v>
       </c>
@@ -10280,7 +10354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:13">
       <c r="D107">
         <v>2</v>
       </c>
@@ -10312,7 +10386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:13">
       <c r="D108" s="1">
         <v>3</v>
       </c>
@@ -10344,7 +10418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:13">
       <c r="D109" s="1">
         <v>4</v>
       </c>
@@ -10376,7 +10450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:13">
       <c r="D110" s="1">
         <v>5</v>
       </c>
@@ -10408,7 +10482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:13">
       <c r="D111" s="1">
         <v>6</v>
       </c>
@@ -10440,7 +10514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:13">
       <c r="D112" s="1">
         <v>7</v>
       </c>
@@ -10472,7 +10546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:13">
       <c r="D113" s="1">
         <v>8</v>
       </c>
@@ -10504,7 +10578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:13">
       <c r="D114" s="1">
         <v>9</v>
       </c>
@@ -10536,7 +10610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:13">
       <c r="D115" s="1">
         <v>10</v>
       </c>
@@ -10568,7 +10642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:13">
       <c r="D116" s="1">
         <v>11</v>
       </c>
@@ -10600,7 +10674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:13">
       <c r="D117" s="1">
         <v>12</v>
       </c>
@@ -10632,7 +10706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:13">
       <c r="D118" s="1">
         <v>13</v>
       </c>
@@ -10664,7 +10738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:13">
       <c r="D119" s="1">
         <v>14</v>
       </c>
@@ -10696,7 +10770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:13">
       <c r="D120" s="1">
         <v>15</v>
       </c>
@@ -10728,7 +10802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:13">
       <c r="D121" s="1">
         <v>16</v>
       </c>
@@ -10760,7 +10834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:13">
       <c r="D122" s="1">
         <v>17</v>
       </c>
@@ -10792,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:13">
       <c r="D123" s="1">
         <v>18</v>
       </c>
@@ -10824,7 +10898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:13">
       <c r="D124" s="1">
         <v>19</v>
       </c>
@@ -10856,7 +10930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:13">
       <c r="D125" s="1">
         <v>20</v>
       </c>
@@ -10888,7 +10962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:13">
       <c r="D126" s="10" t="s">
         <v>11</v>
       </c>
@@ -10925,7 +10999,7 @@
         <v>-2.5274999999999999</v>
       </c>
     </row>
-    <row r="127" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:13">
       <c r="D127" s="10" t="s">
         <v>12</v>
       </c>
@@ -10962,7 +11036,7 @@
         <v>6.9651387563161152E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:13" ht="15.75">
       <c r="D128" s="11" t="s">
         <v>22</v>
       </c>
@@ -10999,7 +11073,7 @@
         <v>1.5574523731841176E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:12" ht="15.75">
       <c r="D129" s="11" t="s">
         <v>23</v>
       </c>
@@ -11036,7 +11110,7 @@
         <v>3.2550754599548058E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:12" ht="15.75">
       <c r="D130" s="11" t="s">
         <v>24</v>
       </c>
@@ -11072,28 +11146,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:M32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>0.46733820729745601</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.75">
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
@@ -11128,7 +11202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="C7">
         <v>1</v>
       </c>
@@ -11163,7 +11237,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="C8">
         <v>2</v>
       </c>
@@ -11198,7 +11272,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -11233,7 +11307,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -11268,7 +11342,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -11303,7 +11377,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -11338,7 +11412,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -11373,7 +11447,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -11408,7 +11482,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -11443,7 +11517,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -11478,7 +11552,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -11513,7 +11587,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -11548,7 +11622,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -11583,7 +11657,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -11618,7 +11692,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -11653,7 +11727,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -11688,7 +11762,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -11723,7 +11797,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -11758,7 +11832,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -11793,7 +11867,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -11828,7 +11902,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13">
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
@@ -11873,7 +11947,7 @@
         <v>3.7634999999999996</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13">
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
@@ -11918,7 +11992,7 @@
         <v>0.40218187820672957</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" ht="15.75">
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
@@ -11963,7 +12037,7 @@
         <v>8.9930601898878845E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" ht="15.75">
       <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
@@ -12008,7 +12082,7 @@
         <v>0.1879549579686568</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" ht="15.75">
       <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
@@ -12043,7 +12117,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" ht="15.75">
       <c r="C32" s="11" t="s">
         <v>31</v>
       </c>
@@ -12088,7 +12162,7 @@
         <v>1.3999999999999995</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4">
       <c r="C33" s="18" t="s">
         <v>32</v>
       </c>
@@ -12097,13 +12171,13 @@
         <v>1.3999999999999995</v>
       </c>
     </row>
-    <row r="74" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" ht="18.75">
       <c r="G74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:13">
       <c r="D76" s="7" t="s">
         <v>0</v>
       </c>
@@ -12135,7 +12209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:13">
       <c r="D77">
         <v>1</v>
       </c>
@@ -12167,7 +12241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:13">
       <c r="D78">
         <v>2</v>
       </c>
@@ -12199,7 +12273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:13">
       <c r="D79" s="1">
         <v>3</v>
       </c>
@@ -12231,7 +12305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:13">
       <c r="D80" s="1">
         <v>4</v>
       </c>
@@ -12260,7 +12334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:13">
       <c r="D81" s="1">
         <v>5</v>
       </c>
@@ -12292,7 +12366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:13">
       <c r="D82" s="1">
         <v>6</v>
       </c>
@@ -12324,7 +12398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:13">
       <c r="D83" s="1">
         <v>7</v>
       </c>
@@ -12356,7 +12430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:13">
       <c r="D84" s="1">
         <v>8</v>
       </c>
@@ -12388,7 +12462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:13">
       <c r="D85" s="1">
         <v>9</v>
       </c>
@@ -12420,7 +12494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:13">
       <c r="D86" s="1">
         <v>10</v>
       </c>
@@ -12452,7 +12526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:13">
       <c r="D87" s="1">
         <v>11</v>
       </c>
@@ -12484,7 +12558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:13">
       <c r="D88" s="1">
         <v>12</v>
       </c>
@@ -12516,7 +12590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:13">
       <c r="D89" s="1">
         <v>13</v>
       </c>
@@ -12548,7 +12622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:13">
       <c r="D90" s="1">
         <v>14</v>
       </c>
@@ -12580,7 +12654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:13">
       <c r="D91" s="1">
         <v>15</v>
       </c>
@@ -12612,7 +12686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:13">
       <c r="D92" s="1">
         <v>16</v>
       </c>
@@ -12644,7 +12718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:13">
       <c r="D93" s="1">
         <v>17</v>
       </c>
@@ -12676,7 +12750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:13">
       <c r="D94" s="1">
         <v>18</v>
       </c>
@@ -12708,7 +12782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:13">
       <c r="D95" s="1">
         <v>19</v>
       </c>
@@ -12740,7 +12814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:13">
       <c r="D96" s="1">
         <v>20</v>
       </c>
@@ -12772,7 +12846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:11">
       <c r="D97" s="6" t="s">
         <v>11</v>
       </c>
@@ -12801,7 +12875,7 @@
         <v>-2.6019999999999999</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:11">
       <c r="D98" s="6" t="s">
         <v>12</v>
       </c>
@@ -12830,7 +12904,7 @@
         <v>9.4679514818759997E-2</v>
       </c>
     </row>
-    <row r="99" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:11" ht="15.75">
       <c r="D99" s="11" t="s">
         <v>22</v>
       </c>
@@ -12859,7 +12933,7 @@
         <v>2.1170983121144602E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:11" ht="15.75">
       <c r="D100" s="11" t="s">
         <v>23</v>
       </c>
@@ -12888,7 +12962,7 @@
         <v>4.4247354723192217E-2</v>
       </c>
     </row>
-    <row r="101" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:11" ht="15.75">
       <c r="D101" s="11" t="s">
         <v>24</v>
       </c>
@@ -12918,16 +12992,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G24:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="C96" workbookViewId="0">
+    <sheetView topLeftCell="C114" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="24" spans="7:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="7:14" ht="31.5">
       <c r="G24" s="16" t="s">
         <v>29</v>
       </c>
@@ -12945,16 +13019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:M7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" ht="23.25">
       <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
@@ -12963,7 +13037,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -12998,7 +13072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13">
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
@@ -13033,7 +13107,7 @@
         <v>0.21902355076446389</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13">
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
@@ -13068,7 +13142,7 @@
         <v>0.21598915664790441</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13">
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
@@ -13100,6 +13174,1055 @@
         <v>0.29006532839490162</v>
       </c>
       <c r="M7">
+        <v>0.40218187820672957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:13" ht="18.75">
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-0.11</v>
+      </c>
+      <c r="E5">
+        <v>0.13</v>
+      </c>
+      <c r="F5">
+        <v>-0.31</v>
+      </c>
+      <c r="G5">
+        <v>-0.08</v>
+      </c>
+      <c r="H5">
+        <v>-0.23</v>
+      </c>
+      <c r="I5">
+        <v>-0.3</v>
+      </c>
+      <c r="J5">
+        <v>-0.25</v>
+      </c>
+      <c r="K5">
+        <v>-0.91</v>
+      </c>
+      <c r="L5">
+        <v>-0.1</v>
+      </c>
+      <c r="M5">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.64</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-0.11</v>
+      </c>
+      <c r="H6">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>-0.22</v>
+      </c>
+      <c r="K6">
+        <v>-1.24</v>
+      </c>
+      <c r="L6">
+        <v>-0.66</v>
+      </c>
+      <c r="M6">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>-0.04</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
+      </c>
+      <c r="F7">
+        <v>-0.27</v>
+      </c>
+      <c r="G7">
+        <v>-0.06</v>
+      </c>
+      <c r="H7">
+        <v>-0.21</v>
+      </c>
+      <c r="I7">
+        <v>-0.27</v>
+      </c>
+      <c r="J7">
+        <v>-0.25</v>
+      </c>
+      <c r="K7">
+        <v>-0.89</v>
+      </c>
+      <c r="L7">
+        <v>-0.08</v>
+      </c>
+      <c r="M7">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.32</v>
+      </c>
+      <c r="E8">
+        <v>0.64</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-0.09</v>
+      </c>
+      <c r="H8">
+        <v>-0.23</v>
+      </c>
+      <c r="I8">
+        <v>-0.25</v>
+      </c>
+      <c r="J8">
+        <v>-0.2</v>
+      </c>
+      <c r="K8">
+        <v>-1.26</v>
+      </c>
+      <c r="L8">
+        <v>-0.69</v>
+      </c>
+      <c r="M8">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>-0.12</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>-0.34</v>
+      </c>
+      <c r="G9">
+        <v>-0.09</v>
+      </c>
+      <c r="H9">
+        <v>-0.23</v>
+      </c>
+      <c r="I9">
+        <v>-0.3</v>
+      </c>
+      <c r="J9">
+        <v>-0.27</v>
+      </c>
+      <c r="K9">
+        <v>-0.95</v>
+      </c>
+      <c r="L9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="M9">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0.44</v>
+      </c>
+      <c r="E10">
+        <v>0.66</v>
+      </c>
+      <c r="F10">
+        <v>0.06</v>
+      </c>
+      <c r="G10">
+        <v>-0.09</v>
+      </c>
+      <c r="H10">
+        <v>-0.24</v>
+      </c>
+      <c r="I10">
+        <v>-0.26</v>
+      </c>
+      <c r="J10">
+        <v>-0.2</v>
+      </c>
+      <c r="K10">
+        <v>-1.17</v>
+      </c>
+      <c r="L10">
+        <v>-0.66</v>
+      </c>
+      <c r="M10">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>-0.27</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>-0.38</v>
+      </c>
+      <c r="G11">
+        <v>-0.06</v>
+      </c>
+      <c r="H11">
+        <v>-0.21</v>
+      </c>
+      <c r="I11">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J11">
+        <v>-0.27</v>
+      </c>
+      <c r="K11">
+        <v>-0.94</v>
+      </c>
+      <c r="L11">
+        <v>-0.12</v>
+      </c>
+      <c r="M11">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.33</v>
+      </c>
+      <c r="E12">
+        <v>0.62</v>
+      </c>
+      <c r="F12">
+        <v>-0.02</v>
+      </c>
+      <c r="G12">
+        <v>-0.11</v>
+      </c>
+      <c r="H12">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I12">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J12">
+        <v>-0.22</v>
+      </c>
+      <c r="K12">
+        <v>-1.21</v>
+      </c>
+      <c r="L12">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M12">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.13</v>
+      </c>
+      <c r="F13">
+        <v>-0.33</v>
+      </c>
+      <c r="G13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H13">
+        <v>-0.25</v>
+      </c>
+      <c r="I13">
+        <v>-0.33</v>
+      </c>
+      <c r="J13">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K13">
+        <v>-0.92</v>
+      </c>
+      <c r="L13">
+        <v>-0.06</v>
+      </c>
+      <c r="M13">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.38</v>
+      </c>
+      <c r="E14">
+        <v>0.62</v>
+      </c>
+      <c r="F14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.21</v>
+      </c>
+      <c r="I14">
+        <v>-0.23</v>
+      </c>
+      <c r="J14">
+        <v>-0.19</v>
+      </c>
+      <c r="K14">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="L14">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M14">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>-0.27</v>
+      </c>
+      <c r="E15">
+        <v>0.12</v>
+      </c>
+      <c r="F15">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G15">
+        <v>-0.05</v>
+      </c>
+      <c r="H15">
+        <v>-0.22</v>
+      </c>
+      <c r="I15">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J15">
+        <v>-0.25</v>
+      </c>
+      <c r="K15">
+        <v>-0.97</v>
+      </c>
+      <c r="L15">
+        <v>-0.21</v>
+      </c>
+      <c r="M15">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>0.33</v>
+      </c>
+      <c r="E16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H16">
+        <v>-0.21</v>
+      </c>
+      <c r="I16">
+        <v>-0.24</v>
+      </c>
+      <c r="J16">
+        <v>-0.19</v>
+      </c>
+      <c r="K16">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="L16">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M16">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.17</v>
+      </c>
+      <c r="F17">
+        <v>0.27</v>
+      </c>
+      <c r="G17">
+        <v>-0.06</v>
+      </c>
+      <c r="H17">
+        <v>-0.22</v>
+      </c>
+      <c r="I17">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J17">
+        <v>-0.26</v>
+      </c>
+      <c r="K17">
+        <v>-0.93</v>
+      </c>
+      <c r="L17">
+        <v>-0.12</v>
+      </c>
+      <c r="M17">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.63</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H18">
+        <v>-0.22</v>
+      </c>
+      <c r="I18">
+        <v>-0.25</v>
+      </c>
+      <c r="J18">
+        <v>-0.21</v>
+      </c>
+      <c r="K18">
+        <v>-1.26</v>
+      </c>
+      <c r="L18">
+        <v>-0.73</v>
+      </c>
+      <c r="M18">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>-0.25</v>
+      </c>
+      <c r="G19">
+        <v>-0.05</v>
+      </c>
+      <c r="H19">
+        <v>-0.2</v>
+      </c>
+      <c r="I19">
+        <v>-0.26</v>
+      </c>
+      <c r="J19">
+        <v>-0.24</v>
+      </c>
+      <c r="K19">
+        <v>-0.88</v>
+      </c>
+      <c r="L19">
+        <v>-0.09</v>
+      </c>
+      <c r="M19">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>-0.05</v>
+      </c>
+      <c r="H20">
+        <v>-0.21</v>
+      </c>
+      <c r="I20">
+        <v>-0.23</v>
+      </c>
+      <c r="J20">
+        <v>-0.19</v>
+      </c>
+      <c r="K20">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="L20">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M20">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>-0.05</v>
+      </c>
+      <c r="E21">
+        <v>0.12</v>
+      </c>
+      <c r="F21">
+        <v>-0.23</v>
+      </c>
+      <c r="G21">
+        <v>-0.05</v>
+      </c>
+      <c r="H21">
+        <v>-0.22</v>
+      </c>
+      <c r="I21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J21">
+        <v>-0.25</v>
+      </c>
+      <c r="K21">
+        <v>-0.89</v>
+      </c>
+      <c r="L21">
+        <v>-0.13</v>
+      </c>
+      <c r="M21">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="1">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>0.46</v>
+      </c>
+      <c r="E22">
+        <v>0.7</v>
+      </c>
+      <c r="F22">
+        <v>0.11</v>
+      </c>
+      <c r="G22">
+        <v>-0.06</v>
+      </c>
+      <c r="H22">
+        <v>-0.23</v>
+      </c>
+      <c r="I22">
+        <v>-0.24</v>
+      </c>
+      <c r="J22">
+        <v>-0.2</v>
+      </c>
+      <c r="K22">
+        <v>-1.2</v>
+      </c>
+      <c r="L22">
+        <v>-0.65</v>
+      </c>
+      <c r="M22">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-0.31</v>
+      </c>
+      <c r="G23">
+        <v>-0.09</v>
+      </c>
+      <c r="H23">
+        <v>-0.26</v>
+      </c>
+      <c r="I23">
+        <v>-0.32</v>
+      </c>
+      <c r="J23">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K23">
+        <v>-0.97</v>
+      </c>
+      <c r="L23">
+        <v>-0.15</v>
+      </c>
+      <c r="M23">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0.41</v>
+      </c>
+      <c r="E24">
+        <v>0.7</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>-0.1</v>
+      </c>
+      <c r="H24">
+        <v>-0.26</v>
+      </c>
+      <c r="I24">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J24">
+        <v>-0.21</v>
+      </c>
+      <c r="K24">
+        <v>-1.22</v>
+      </c>
+      <c r="L24">
+        <v>-0.61</v>
+      </c>
+      <c r="M24">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15.75">
+      <c r="C25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="23">
+        <f>SUBTOTAL(101,D5:D24)</f>
+        <v>0.12600000000000003</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
+        <v>0.375</v>
+      </c>
+      <c r="F25" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.10950000000000001</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" si="0"/>
+        <v>-7.4000000000000024E-2</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.23100000000000004</v>
+      </c>
+      <c r="I25" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.27350000000000008</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.23149999999999998</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.0625</v>
+      </c>
+      <c r="L25" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.37600000000000006</v>
+      </c>
+      <c r="M25" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="23">
+        <f>STDEV(D5:D24)</f>
+        <v>0.24575126492151839</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+        <v>0.27095348212134901</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" si="1"/>
+        <v>0.19027611515899726</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="1"/>
+        <v>1.9841477024816312E-2</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3597502097958335E-2</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="1"/>
+        <v>2.8335397241649171E-2</v>
+      </c>
+      <c r="J26" s="23">
+        <f t="shared" si="1"/>
+        <v>3.1834274809261667E-2</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="1"/>
+        <v>0.14628289103831021</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="1"/>
+        <v>0.26684117097313848</v>
+      </c>
+      <c r="M26" s="23">
+        <f t="shared" si="1"/>
+        <v>0.18101759146848873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="3:13" ht="18.75">
+      <c r="F4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>0.24575126492151839</v>
+      </c>
+      <c r="E6">
+        <v>0.27095348212134901</v>
+      </c>
+      <c r="F6">
+        <v>0.19027611515899726</v>
+      </c>
+      <c r="G6">
+        <v>1.9841477024816312E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.3597502097958335E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.8335397241649171E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.1834274809261667E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.14628289103831021</v>
+      </c>
+      <c r="L6">
+        <v>0.26684117097313848</v>
+      </c>
+      <c r="M6">
+        <v>0.18101759146848873</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0.27653637811516296</v>
+      </c>
+      <c r="E7">
+        <v>0.23988154971722386</v>
+      </c>
+      <c r="F7">
+        <v>0.12647030023727018</v>
+      </c>
+      <c r="G7">
+        <v>2.4899799195977301E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.2606102108912703E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.4809802816416617E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.881885347805227E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.2016093147388629</v>
+      </c>
+      <c r="L7">
+        <v>0.19285664160335861</v>
+      </c>
+      <c r="M7">
+        <v>0.21902355076446389</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>0.12143332586888554</v>
+      </c>
+      <c r="E8">
+        <v>0.15094352377104689</v>
+      </c>
+      <c r="F8">
+        <v>8.6235601391585134E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.1867323637065369E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.5526044491233284E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.8099592482970492E-2</v>
+      </c>
+      <c r="J8">
+        <v>3.3308762874212805E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.11520576557209559</v>
+      </c>
+      <c r="L8">
+        <v>0.23059362751956444</v>
+      </c>
+      <c r="M8">
+        <v>0.21598915664790441</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>0.14475023861447475</v>
+      </c>
+      <c r="E9">
+        <v>0.15401298646542766</v>
+      </c>
+      <c r="F9">
+        <v>8.7141747805092262E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.6137289353275334E-2</v>
+      </c>
+      <c r="H9">
+        <v>6.366028258614094E-2</v>
+      </c>
+      <c r="I9">
+        <v>7.1884410139143637E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.6052030071259679E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.14869962658785785</v>
+      </c>
+      <c r="L9">
+        <v>0.29006532839490162</v>
+      </c>
+      <c r="M9">
         <v>0.40218187820672957</v>
       </c>
     </row>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="6"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="52">
   <si>
     <t>Nr/MP</t>
   </si>
@@ -224,6 +224,42 @@
   <si>
     <t>Vergl. Standardab. Fräs</t>
   </si>
+  <si>
+    <t>Mp/Nr</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>MP4</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>MP6</t>
+  </si>
+  <si>
+    <t>MP7</t>
+  </si>
+  <si>
+    <t>MP8</t>
+  </si>
+  <si>
+    <t>MP9</t>
+  </si>
+  <si>
+    <t>MP10</t>
+  </si>
+  <si>
+    <t>nF13 Fräs Spalt unten</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +412,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -488,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -518,12 +560,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -546,20 +611,6 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,7 +643,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -694,27 +744,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="56953472"/>
-        <c:axId val="56971648"/>
+        <c:axId val="76787072"/>
+        <c:axId val="76731520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="56953472"/>
+        <c:axId val="76787072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56971648"/>
+        <c:crossAx val="76731520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56971648"/>
+        <c:axId val="76731520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,21 +771,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56953472"/>
+        <c:crossAx val="76787072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -872,27 +920,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65557632"/>
-        <c:axId val="65559168"/>
+        <c:axId val="79841920"/>
+        <c:axId val="79847808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65557632"/>
+        <c:axId val="79841920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65559168"/>
+        <c:crossAx val="79847808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65559168"/>
+        <c:axId val="79847808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,21 +947,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65557632"/>
+        <c:crossAx val="79841920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1018,27 +1064,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65588224"/>
-        <c:axId val="65598208"/>
+        <c:axId val="79692160"/>
+        <c:axId val="79693696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65588224"/>
+        <c:axId val="79692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65598208"/>
+        <c:crossAx val="79693696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65598208"/>
+        <c:axId val="79693696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1091,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65588224"/>
+        <c:crossAx val="79692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,7 +1104,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1090,7 +1135,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17658333333333345"/>
+          <c:x val="0.17658333333333351"/>
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1171,27 +1216,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65627264"/>
-        <c:axId val="65628800"/>
+        <c:axId val="79714176"/>
+        <c:axId val="79715712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65627264"/>
+        <c:axId val="79714176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65628800"/>
+        <c:crossAx val="79715712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65628800"/>
+        <c:axId val="79715712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1243,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65627264"/>
+        <c:crossAx val="79714176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1212,7 +1256,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1239,7 +1283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1341,27 +1384,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65686912"/>
-        <c:axId val="65721472"/>
+        <c:axId val="79929344"/>
+        <c:axId val="79930880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65686912"/>
+        <c:axId val="79929344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65721472"/>
+        <c:crossAx val="79930880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65721472"/>
+        <c:axId val="79930880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,14 +1411,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65686912"/>
+        <c:crossAx val="79929344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1410,7 +1451,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1512,27 +1552,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="66020864"/>
-        <c:axId val="66022400"/>
+        <c:axId val="80033280"/>
+        <c:axId val="80034816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66020864"/>
+        <c:axId val="80033280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66022400"/>
+        <c:crossAx val="80034816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66022400"/>
+        <c:axId val="80034816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,14 +1579,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66020864"/>
+        <c:crossAx val="80033280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1690,27 +1728,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="66039168"/>
-        <c:axId val="66049152"/>
+        <c:axId val="80047104"/>
+        <c:axId val="80048896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66039168"/>
+        <c:axId val="80047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66049152"/>
+        <c:crossAx val="80048896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66049152"/>
+        <c:axId val="80048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,14 +1755,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66039168"/>
+        <c:crossAx val="80047104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1759,7 +1795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1861,27 +1896,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67130880"/>
-        <c:axId val="67132416"/>
+        <c:axId val="80089856"/>
+        <c:axId val="80091392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67130880"/>
+        <c:axId val="80089856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67132416"/>
+        <c:crossAx val="80091392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67132416"/>
+        <c:axId val="80091392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,14 +1923,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67130880"/>
+        <c:crossAx val="80089856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1930,7 +1963,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -2032,27 +2064,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67161472"/>
-        <c:axId val="67179648"/>
+        <c:axId val="80111872"/>
+        <c:axId val="80134144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67161472"/>
+        <c:axId val="80111872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67179648"/>
+        <c:crossAx val="80134144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67179648"/>
+        <c:axId val="80134144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,14 +2091,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67161472"/>
+        <c:crossAx val="80111872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2101,7 +2131,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -2203,27 +2232,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67204608"/>
-        <c:axId val="67206144"/>
+        <c:axId val="79953920"/>
+        <c:axId val="79955456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67204608"/>
+        <c:axId val="79953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67206144"/>
+        <c:crossAx val="79955456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67206144"/>
+        <c:axId val="79955456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,14 +2259,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67204608"/>
+        <c:crossAx val="79953920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2272,7 +2299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -2374,27 +2400,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67235200"/>
-        <c:axId val="67503232"/>
+        <c:axId val="79996416"/>
+        <c:axId val="79997952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67235200"/>
+        <c:axId val="79996416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67503232"/>
+        <c:crossAx val="79997952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67503232"/>
+        <c:axId val="79997952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,14 +2427,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67235200"/>
+        <c:crossAx val="79996416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2552,27 +2576,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="57008896"/>
-        <c:axId val="57010432"/>
+        <c:axId val="76822016"/>
+        <c:axId val="76823552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57008896"/>
+        <c:axId val="76822016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57010432"/>
+        <c:crossAx val="76823552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57010432"/>
+        <c:axId val="76823552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,7 +2603,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57008896"/>
+        <c:crossAx val="76822016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2593,7 +2616,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2729,27 +2752,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67548672"/>
-        <c:axId val="67550208"/>
+        <c:axId val="80157696"/>
+        <c:axId val="80159488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67548672"/>
+        <c:axId val="80157696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67550208"/>
+        <c:crossAx val="80159488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67550208"/>
+        <c:axId val="80159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,14 +2779,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67548672"/>
+        <c:crossAx val="80157696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2798,7 +2819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -2900,27 +2920,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67575168"/>
-        <c:axId val="67589248"/>
+        <c:axId val="80188160"/>
+        <c:axId val="80189696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67575168"/>
+        <c:axId val="80188160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67589248"/>
+        <c:crossAx val="80189696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67589248"/>
+        <c:axId val="80189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,14 +2947,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67575168"/>
+        <c:crossAx val="80188160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2969,7 +2987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -3071,27 +3088,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67618304"/>
-        <c:axId val="67619840"/>
+        <c:axId val="80201984"/>
+        <c:axId val="80220160"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67618304"/>
+        <c:axId val="80201984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67619840"/>
+        <c:crossAx val="80220160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67619840"/>
+        <c:axId val="80220160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,14 +3115,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67618304"/>
+        <c:crossAx val="80201984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3140,7 +3155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -3242,27 +3256,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67911040"/>
-        <c:axId val="67925120"/>
+        <c:axId val="80236544"/>
+        <c:axId val="80238080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67911040"/>
+        <c:axId val="80236544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67925120"/>
+        <c:crossAx val="80238080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67925120"/>
+        <c:axId val="80238080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3283,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67911040"/>
+        <c:crossAx val="80236544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3420,27 +3432,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="67958272"/>
-        <c:axId val="67959808"/>
+        <c:axId val="80270848"/>
+        <c:axId val="80272384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67958272"/>
+        <c:axId val="80270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67959808"/>
+        <c:crossAx val="80272384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67959808"/>
+        <c:axId val="80272384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,14 +3459,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67958272"/>
+        <c:crossAx val="80270848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3488,7 +3498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -3774,27 +3783,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="68020480"/>
-        <c:axId val="68034560"/>
+        <c:axId val="80331904"/>
+        <c:axId val="80333440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68020480"/>
+        <c:axId val="80331904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68034560"/>
+        <c:crossAx val="80333440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68034560"/>
+        <c:axId val="80333440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,21 +3810,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68020480"/>
+        <c:crossAx val="80331904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3931,25 +3938,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="111419392"/>
-        <c:axId val="111420928"/>
+        <c:axId val="81484800"/>
+        <c:axId val="81494784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="111419392"/>
+        <c:axId val="81484800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111420928"/>
+        <c:crossAx val="81494784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111420928"/>
+        <c:axId val="81494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3964,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111419392"/>
+        <c:crossAx val="81484800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3970,7 +3977,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3991,19 +3998,271 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Standardab. Fräs</a:t>
+              <a:t>Vergl. Standardab. Fräs Kontur</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
     </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="81802752"/>
+        <c:axId val="81804288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81802752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81804288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81804288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81802752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Fräs Standardab.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -4374,26 +4633,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="69260800"/>
-        <c:axId val="69262336"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="100217216"/>
+        <c:axId val="100218752"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="69260800"/>
+        <c:axId val="100217216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69262336"/>
+        <c:crossAx val="100218752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69262336"/>
+        <c:axId val="100218752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4658,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69260800"/>
+        <c:crossAx val="100217216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4420,14 +4677,33 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Fräs Standardab.  Eingrenzung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4525,6 +4801,98 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
+              <c:f>Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Vergl.Fäs!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4612,25 +4980,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="142684160"/>
-        <c:axId val="142686464"/>
-      </c:lineChart>
+        <c:axId val="65832448"/>
+        <c:axId val="65833984"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="142684160"/>
+        <c:axId val="65832448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142686464"/>
+        <c:crossAx val="65833984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142686464"/>
+        <c:axId val="65833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +5005,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142684160"/>
+        <c:crossAx val="65832448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4767,27 +5134,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="57105024"/>
-        <c:axId val="57131392"/>
+        <c:axId val="76868608"/>
+        <c:axId val="78390016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57105024"/>
+        <c:axId val="76868608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57131392"/>
+        <c:crossAx val="78390016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57131392"/>
+        <c:axId val="78390016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4795,7 +5161,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57105024"/>
+        <c:crossAx val="76868608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4808,7 +5174,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4924,27 +5290,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="57414400"/>
-        <c:axId val="57415936"/>
+        <c:axId val="78426880"/>
+        <c:axId val="78428416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57414400"/>
+        <c:axId val="78426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57415936"/>
+        <c:crossAx val="78428416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57415936"/>
+        <c:axId val="78428416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,7 +5317,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57414400"/>
+        <c:crossAx val="78426880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4965,7 +5330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4992,6 +5357,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5093,27 +5459,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="57875456"/>
-        <c:axId val="57893632"/>
+        <c:axId val="78490240"/>
+        <c:axId val="78578048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57875456"/>
+        <c:axId val="78490240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57893632"/>
+        <c:crossAx val="78578048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57893632"/>
+        <c:axId val="78578048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,20 +5486,21 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57875456"/>
+        <c:crossAx val="78490240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5161,6 +5527,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5262,27 +5629,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="57926784"/>
-        <c:axId val="57928320"/>
+        <c:axId val="78594432"/>
+        <c:axId val="78595968"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57926784"/>
+        <c:axId val="78594432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57928320"/>
+        <c:crossAx val="78595968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57928320"/>
+        <c:axId val="78595968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,20 +5656,21 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57926784"/>
+        <c:crossAx val="78594432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5419,27 +5786,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65149952"/>
-        <c:axId val="65172224"/>
+        <c:axId val="78612352"/>
+        <c:axId val="78613888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65149952"/>
+        <c:axId val="78612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65172224"/>
+        <c:crossAx val="78613888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65172224"/>
+        <c:axId val="78613888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5447,7 +5813,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65149952"/>
+        <c:crossAx val="78612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5460,7 +5826,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5576,27 +5942,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65196800"/>
-        <c:axId val="65198336"/>
+        <c:axId val="78638080"/>
+        <c:axId val="79770368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65196800"/>
+        <c:axId val="78638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65198336"/>
+        <c:crossAx val="79770368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65198336"/>
+        <c:axId val="79770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5604,7 +5969,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65196800"/>
+        <c:crossAx val="78638080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5617,7 +5982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5644,7 +6009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5746,27 +6110,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="cylinder"/>
-        <c:axId val="65534976"/>
-        <c:axId val="65540864"/>
+        <c:axId val="79828096"/>
+        <c:axId val="79829632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65534976"/>
+        <c:axId val="79828096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65540864"/>
+        <c:crossAx val="79829632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65540864"/>
+        <c:axId val="79829632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5774,21 +6137,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65534976"/>
+        <c:crossAx val="79828096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6608,36 +6970,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -6660,7 +6992,67 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7026,7 +7418,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M26" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M26" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="C4:M26"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr/MP"/>
@@ -7040,6 +7432,26 @@
     <tableColumn id="9" name="MP8a"/>
     <tableColumn id="10" name="MP9a"/>
     <tableColumn id="11" name="MP10a"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C66:M88" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C66:M88"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Mp/Nr"/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9263,8 +9675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:N27"/>
+    <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11149,7 +11561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28:M28"/>
     </sheetView>
   </sheetViews>
@@ -13185,10 +13597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:M26"/>
+  <dimension ref="C3:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:M26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14024,12 +14436,844 @@
         <v>0.18101759146848873</v>
       </c>
     </row>
+    <row r="65" spans="3:13" ht="18.75">
+      <c r="F65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>-1.99</v>
+      </c>
+      <c r="E67">
+        <v>-2.25</v>
+      </c>
+      <c r="F67">
+        <v>-2.58</v>
+      </c>
+      <c r="G67">
+        <v>-2.71</v>
+      </c>
+      <c r="H67">
+        <v>-2.81</v>
+      </c>
+      <c r="I67">
+        <v>-2.41</v>
+      </c>
+      <c r="J67">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="K67">
+        <v>-2.46</v>
+      </c>
+      <c r="L67">
+        <v>-2.21</v>
+      </c>
+      <c r="M67">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>-1.96</v>
+      </c>
+      <c r="E68">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="F68">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="G68">
+        <v>-2.91</v>
+      </c>
+      <c r="H68">
+        <v>-3.03</v>
+      </c>
+      <c r="I68">
+        <v>-2.81</v>
+      </c>
+      <c r="J68">
+        <v>-2.68</v>
+      </c>
+      <c r="K68">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L68">
+        <v>-2.5</v>
+      </c>
+      <c r="M68">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>-2.04</v>
+      </c>
+      <c r="E69">
+        <v>-2.27</v>
+      </c>
+      <c r="F69">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="G69">
+        <v>-2.83</v>
+      </c>
+      <c r="H69">
+        <v>-2.71</v>
+      </c>
+      <c r="I69">
+        <v>-2.34</v>
+      </c>
+      <c r="J69">
+        <v>-2.44</v>
+      </c>
+      <c r="K69">
+        <v>-2.34</v>
+      </c>
+      <c r="L69">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="M69">
+        <v>-2.31</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>-2</v>
+      </c>
+      <c r="E70">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F70">
+        <v>-2.31</v>
+      </c>
+      <c r="G70">
+        <v>-2.9</v>
+      </c>
+      <c r="H70">
+        <v>-3.05</v>
+      </c>
+      <c r="I70">
+        <v>-2.8</v>
+      </c>
+      <c r="J70">
+        <v>-2.68</v>
+      </c>
+      <c r="K70">
+        <v>-2.5</v>
+      </c>
+      <c r="L70">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="M70">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>-2.12</v>
+      </c>
+      <c r="E71">
+        <v>-2.31</v>
+      </c>
+      <c r="F71">
+        <v>-2.52</v>
+      </c>
+      <c r="G71">
+        <v>-2.67</v>
+      </c>
+      <c r="H71">
+        <v>-2.77</v>
+      </c>
+      <c r="I71">
+        <v>-2.36</v>
+      </c>
+      <c r="J71">
+        <v>-2.4</v>
+      </c>
+      <c r="K71">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="L71">
+        <v>-2.19</v>
+      </c>
+      <c r="M71">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>-2.06</v>
+      </c>
+      <c r="E72">
+        <v>-2.25</v>
+      </c>
+      <c r="F72">
+        <v>-2.31</v>
+      </c>
+      <c r="G72">
+        <v>-2.89</v>
+      </c>
+      <c r="H72">
+        <v>-3.01</v>
+      </c>
+      <c r="I72">
+        <v>-2.78</v>
+      </c>
+      <c r="J72">
+        <v>-2.67</v>
+      </c>
+      <c r="K72">
+        <v>-2.44</v>
+      </c>
+      <c r="L72">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="M72">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>-1.95</v>
+      </c>
+      <c r="E73">
+        <v>-2.25</v>
+      </c>
+      <c r="F73">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="G73">
+        <v>-2.63</v>
+      </c>
+      <c r="H73">
+        <v>-2.74</v>
+      </c>
+      <c r="I73">
+        <v>-2.34</v>
+      </c>
+      <c r="J73">
+        <v>-2.4</v>
+      </c>
+      <c r="K73">
+        <v>-2.42</v>
+      </c>
+      <c r="L73">
+        <v>-2.19</v>
+      </c>
+      <c r="M73">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" s="1">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>-2.02</v>
+      </c>
+      <c r="E74">
+        <v>-2.27</v>
+      </c>
+      <c r="F74">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="G74">
+        <v>-2.9</v>
+      </c>
+      <c r="H74">
+        <v>-3.05</v>
+      </c>
+      <c r="I74">
+        <v>-2.8</v>
+      </c>
+      <c r="J74">
+        <v>-2.71</v>
+      </c>
+      <c r="K74">
+        <v>-2.54</v>
+      </c>
+      <c r="L74">
+        <v>-2.5</v>
+      </c>
+      <c r="M74">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" s="1">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>-2.19</v>
+      </c>
+      <c r="E75">
+        <v>-2.36</v>
+      </c>
+      <c r="F75">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="G75">
+        <v>-2.62</v>
+      </c>
+      <c r="H75">
+        <v>-2.72</v>
+      </c>
+      <c r="I75">
+        <v>-2.31</v>
+      </c>
+      <c r="J75">
+        <v>-2.38</v>
+      </c>
+      <c r="K75">
+        <v>-2.39</v>
+      </c>
+      <c r="L75">
+        <v>-2.34</v>
+      </c>
+      <c r="M75">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>-2.08</v>
+      </c>
+      <c r="E76">
+        <v>-2.31</v>
+      </c>
+      <c r="F76">
+        <v>-2.39</v>
+      </c>
+      <c r="G76">
+        <v>-2.9</v>
+      </c>
+      <c r="H76">
+        <v>-3.04</v>
+      </c>
+      <c r="I76">
+        <v>-2.76</v>
+      </c>
+      <c r="J76">
+        <v>-2.73</v>
+      </c>
+      <c r="K76">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L76">
+        <v>-2.48</v>
+      </c>
+      <c r="M76">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" s="1">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>-1.97</v>
+      </c>
+      <c r="E77">
+        <v>-2.31</v>
+      </c>
+      <c r="F77">
+        <v>-2.54</v>
+      </c>
+      <c r="G77">
+        <v>-2.69</v>
+      </c>
+      <c r="H77">
+        <v>-2.75</v>
+      </c>
+      <c r="I77">
+        <v>-2.31</v>
+      </c>
+      <c r="J77">
+        <v>-2.42</v>
+      </c>
+      <c r="K77">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L77">
+        <v>-2.19</v>
+      </c>
+      <c r="M77">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="C78" s="1">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>-2.04</v>
+      </c>
+      <c r="E78">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="F78">
+        <v>-2.33</v>
+      </c>
+      <c r="G78">
+        <v>-2.87</v>
+      </c>
+      <c r="H78">
+        <v>-3</v>
+      </c>
+      <c r="I78">
+        <v>-2.71</v>
+      </c>
+      <c r="J78">
+        <v>-2.69</v>
+      </c>
+      <c r="K78">
+        <v>-2.4</v>
+      </c>
+      <c r="L78">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="M78">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13">
+      <c r="C79" s="1">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="E79">
+        <v>-2.27</v>
+      </c>
+      <c r="F79">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="G79">
+        <v>-2.65</v>
+      </c>
+      <c r="H79">
+        <v>-2.71</v>
+      </c>
+      <c r="I79">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="J79">
+        <v>-2.37</v>
+      </c>
+      <c r="K79">
+        <v>-2.42</v>
+      </c>
+      <c r="L79">
+        <v>-2.23</v>
+      </c>
+      <c r="M79">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="C80" s="1">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>-1.99</v>
+      </c>
+      <c r="E80">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F80">
+        <v>-2.36</v>
+      </c>
+      <c r="G80">
+        <v>-2.87</v>
+      </c>
+      <c r="H80">
+        <v>-3.04</v>
+      </c>
+      <c r="I80">
+        <v>-2.78</v>
+      </c>
+      <c r="J80">
+        <v>-2.8</v>
+      </c>
+      <c r="K80">
+        <v>-2.52</v>
+      </c>
+      <c r="L80">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="M80">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13">
+      <c r="C81" s="1">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="E81">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="F81">
+        <v>-2.56</v>
+      </c>
+      <c r="G81">
+        <v>-2.68</v>
+      </c>
+      <c r="H81">
+        <v>-2.76</v>
+      </c>
+      <c r="I81">
+        <v>-2.39</v>
+      </c>
+      <c r="J81">
+        <v>-2.39</v>
+      </c>
+      <c r="K81">
+        <v>-2.4</v>
+      </c>
+      <c r="L81">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="M81">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="C82" s="1">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>-2.02</v>
+      </c>
+      <c r="E82">
+        <v>-2.29</v>
+      </c>
+      <c r="F82">
+        <v>-2.37</v>
+      </c>
+      <c r="G82">
+        <v>-2.9</v>
+      </c>
+      <c r="H82">
+        <v>-3.03</v>
+      </c>
+      <c r="I82">
+        <v>-2.75</v>
+      </c>
+      <c r="J82">
+        <v>-2.67</v>
+      </c>
+      <c r="K82">
+        <v>-2.46</v>
+      </c>
+      <c r="L82">
+        <v>-2.48</v>
+      </c>
+      <c r="M82">
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="C83" s="1">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>-2.09</v>
+      </c>
+      <c r="E83">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F83">
+        <v>-2.56</v>
+      </c>
+      <c r="G83">
+        <v>-2.65</v>
+      </c>
+      <c r="H83">
+        <v>-2.73</v>
+      </c>
+      <c r="I83">
+        <v>-2.33</v>
+      </c>
+      <c r="J83">
+        <v>-2.39</v>
+      </c>
+      <c r="K83">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L83">
+        <v>-2.21</v>
+      </c>
+      <c r="M83">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" s="1">
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>-2.04</v>
+      </c>
+      <c r="E84">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F84">
+        <v>-2.35</v>
+      </c>
+      <c r="G84">
+        <v>-2.89</v>
+      </c>
+      <c r="H84">
+        <v>-3.03</v>
+      </c>
+      <c r="I84">
+        <v>-2.78</v>
+      </c>
+      <c r="J84">
+        <v>-2.76</v>
+      </c>
+      <c r="K84">
+        <v>-2.44</v>
+      </c>
+      <c r="L84">
+        <v>-2.5</v>
+      </c>
+      <c r="M84">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" s="1">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>-2</v>
+      </c>
+      <c r="E85">
+        <v>-2.31</v>
+      </c>
+      <c r="F85">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="G85">
+        <v>-2.73</v>
+      </c>
+      <c r="H85">
+        <v>-2.77</v>
+      </c>
+      <c r="I85">
+        <v>-2.36</v>
+      </c>
+      <c r="J85">
+        <v>-2.42</v>
+      </c>
+      <c r="K85">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="L85">
+        <v>-2.19</v>
+      </c>
+      <c r="M85">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" s="1">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>-1.95</v>
+      </c>
+      <c r="E86">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="F86">
+        <v>-2.36</v>
+      </c>
+      <c r="G86">
+        <v>-2.9</v>
+      </c>
+      <c r="H86">
+        <v>-3.09</v>
+      </c>
+      <c r="I86">
+        <v>-2.8</v>
+      </c>
+      <c r="J86">
+        <v>-2.83</v>
+      </c>
+      <c r="K86">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="L86">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="M86">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13">
+      <c r="C87" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="23">
+        <f>SUBTOTAL(101,D67:D86)</f>
+        <v>-2.0324999999999998</v>
+      </c>
+      <c r="E87" s="23">
+        <f t="shared" ref="E87:M87" si="2">SUBTOTAL(101,E67:E86)</f>
+        <v>-2.2794999999999996</v>
+      </c>
+      <c r="F87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.4394999999999998</v>
+      </c>
+      <c r="G87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.7894999999999994</v>
+      </c>
+      <c r="H87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.8920000000000003</v>
+      </c>
+      <c r="I87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.5609999999999995</v>
+      </c>
+      <c r="J87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.5659999999999998</v>
+      </c>
+      <c r="K87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.452</v>
+      </c>
+      <c r="L87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.35</v>
+      </c>
+      <c r="M87" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.3449999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="C88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="23">
+        <f>STDEV(D67:D86)</f>
+        <v>6.0946482131539387E-2</v>
+      </c>
+      <c r="E88" s="23">
+        <f t="shared" ref="E88:M88" si="3">STDEV(E67:E86)</f>
+        <v>3.1030545223087909E-2</v>
+      </c>
+      <c r="F88" s="23">
+        <f t="shared" si="3"/>
+        <v>0.10328677502341665</v>
+      </c>
+      <c r="G88" s="23">
+        <f t="shared" si="3"/>
+        <v>0.11459195342378087</v>
+      </c>
+      <c r="H88" s="23">
+        <f t="shared" si="3"/>
+        <v>0.15129615433244911</v>
+      </c>
+      <c r="I88" s="23">
+        <f t="shared" si="3"/>
+        <v>0.22393373079881165</v>
+      </c>
+      <c r="J88" s="23">
+        <f t="shared" si="3"/>
+        <v>0.16655645478809758</v>
+      </c>
+      <c r="K88" s="23">
+        <f t="shared" si="3"/>
+        <v>5.0638034384395278E-2</v>
+      </c>
+      <c r="L88" s="23">
+        <f t="shared" si="3"/>
+        <v>0.14245959722709395</v>
+      </c>
+      <c r="M88" s="23">
+        <f t="shared" si="3"/>
+        <v>6.3287148441812893E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14038,8 +15282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="6"/>
@@ -745,25 +745,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76787072"/>
-        <c:axId val="76731520"/>
+        <c:axId val="58854784"/>
+        <c:axId val="65111168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76787072"/>
+        <c:axId val="58854784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76731520"/>
+        <c:crossAx val="65111168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76731520"/>
+        <c:axId val="65111168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +771,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76787072"/>
+        <c:crossAx val="58854784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,25 +921,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79841920"/>
-        <c:axId val="79847808"/>
+        <c:axId val="66898560"/>
+        <c:axId val="66912640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79841920"/>
+        <c:axId val="66898560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79847808"/>
+        <c:crossAx val="66912640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79847808"/>
+        <c:axId val="66912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +947,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79841920"/>
+        <c:crossAx val="66898560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1065,25 +1065,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79692160"/>
-        <c:axId val="79693696"/>
+        <c:axId val="66945408"/>
+        <c:axId val="66946944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79692160"/>
+        <c:axId val="66945408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79693696"/>
+        <c:crossAx val="66946944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79693696"/>
+        <c:axId val="66946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1091,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79692160"/>
+        <c:crossAx val="66945408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1135,7 +1135,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17658333333333351"/>
+          <c:x val="0.17658333333333354"/>
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1217,25 +1217,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79714176"/>
-        <c:axId val="79715712"/>
+        <c:axId val="66967424"/>
+        <c:axId val="66968960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79714176"/>
+        <c:axId val="66967424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79715712"/>
+        <c:crossAx val="66968960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79715712"/>
+        <c:axId val="66968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1243,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79714176"/>
+        <c:crossAx val="66967424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1385,25 +1385,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79929344"/>
-        <c:axId val="79930880"/>
+        <c:axId val="66990080"/>
+        <c:axId val="66991616"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79929344"/>
+        <c:axId val="66990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79930880"/>
+        <c:crossAx val="66991616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79930880"/>
+        <c:axId val="66991616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79929344"/>
+        <c:crossAx val="66990080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,25 +1553,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80033280"/>
-        <c:axId val="80034816"/>
+        <c:axId val="67024384"/>
+        <c:axId val="67025920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80033280"/>
+        <c:axId val="67024384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80034816"/>
+        <c:crossAx val="67025920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80034816"/>
+        <c:axId val="67025920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80033280"/>
+        <c:crossAx val="67024384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1729,25 +1729,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80047104"/>
-        <c:axId val="80048896"/>
+        <c:axId val="67111936"/>
+        <c:axId val="67117824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80047104"/>
+        <c:axId val="67111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80048896"/>
+        <c:crossAx val="67117824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80048896"/>
+        <c:axId val="67117824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1755,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80047104"/>
+        <c:crossAx val="67111936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,25 +1897,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80089856"/>
-        <c:axId val="80091392"/>
+        <c:axId val="67146496"/>
+        <c:axId val="67148032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80089856"/>
+        <c:axId val="67146496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80091392"/>
+        <c:crossAx val="67148032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80091392"/>
+        <c:axId val="67148032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1923,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80089856"/>
+        <c:crossAx val="67146496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2065,25 +2065,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80111872"/>
-        <c:axId val="80134144"/>
+        <c:axId val="67176704"/>
+        <c:axId val="67190784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80111872"/>
+        <c:axId val="67176704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80134144"/>
+        <c:crossAx val="67190784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80134144"/>
+        <c:axId val="67190784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2091,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80111872"/>
+        <c:crossAx val="67176704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2233,25 +2233,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79953920"/>
-        <c:axId val="79955456"/>
+        <c:axId val="67211264"/>
+        <c:axId val="67212800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79953920"/>
+        <c:axId val="67211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79955456"/>
+        <c:crossAx val="67212800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79955456"/>
+        <c:axId val="67212800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2259,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79953920"/>
+        <c:crossAx val="67211264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,25 +2401,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79996416"/>
-        <c:axId val="79997952"/>
+        <c:axId val="68552192"/>
+        <c:axId val="68553728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79996416"/>
+        <c:axId val="68552192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79997952"/>
+        <c:crossAx val="68553728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79997952"/>
+        <c:axId val="68553728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2427,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79996416"/>
+        <c:crossAx val="68552192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2577,25 +2577,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76822016"/>
-        <c:axId val="76823552"/>
+        <c:axId val="65132032"/>
+        <c:axId val="65133568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76822016"/>
+        <c:axId val="65132032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76823552"/>
+        <c:crossAx val="65133568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76823552"/>
+        <c:axId val="65133568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2603,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76822016"/>
+        <c:crossAx val="65132032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2753,25 +2753,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80157696"/>
-        <c:axId val="80159488"/>
+        <c:axId val="68574208"/>
+        <c:axId val="68588288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80157696"/>
+        <c:axId val="68574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80159488"/>
+        <c:crossAx val="68588288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80159488"/>
+        <c:axId val="68588288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2779,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80157696"/>
+        <c:crossAx val="68574208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2921,25 +2921,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80188160"/>
-        <c:axId val="80189696"/>
+        <c:axId val="68621056"/>
+        <c:axId val="68622592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80188160"/>
+        <c:axId val="68621056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80189696"/>
+        <c:crossAx val="68622592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80189696"/>
+        <c:axId val="68622592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2947,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80188160"/>
+        <c:crossAx val="68621056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3089,25 +3089,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80201984"/>
-        <c:axId val="80220160"/>
+        <c:axId val="68643072"/>
+        <c:axId val="68661248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80201984"/>
+        <c:axId val="68643072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80220160"/>
+        <c:crossAx val="68661248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80220160"/>
+        <c:axId val="68661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3115,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80201984"/>
+        <c:crossAx val="68643072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3257,25 +3257,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80236544"/>
-        <c:axId val="80238080"/>
+        <c:axId val="68677632"/>
+        <c:axId val="68679168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80236544"/>
+        <c:axId val="68677632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80238080"/>
+        <c:crossAx val="68679168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80238080"/>
+        <c:axId val="68679168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3283,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80236544"/>
+        <c:crossAx val="68677632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,25 +3433,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80270848"/>
-        <c:axId val="80272384"/>
+        <c:axId val="68978176"/>
+        <c:axId val="68979712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80270848"/>
+        <c:axId val="68978176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80272384"/>
+        <c:crossAx val="68979712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80272384"/>
+        <c:axId val="68979712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3459,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80270848"/>
+        <c:crossAx val="68978176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3784,25 +3784,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80331904"/>
-        <c:axId val="80333440"/>
+        <c:axId val="69022848"/>
+        <c:axId val="69024384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80331904"/>
+        <c:axId val="69022848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80333440"/>
+        <c:crossAx val="69024384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80333440"/>
+        <c:axId val="69024384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +3810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80331904"/>
+        <c:crossAx val="69022848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3834,9 +3834,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3938,25 +3936,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81484800"/>
-        <c:axId val="81494784"/>
+        <c:axId val="69131264"/>
+        <c:axId val="69141248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81484800"/>
+        <c:axId val="69131264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81494784"/>
+        <c:crossAx val="69141248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81494784"/>
+        <c:axId val="69141248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,20 +3962,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81484800"/>
+        <c:crossAx val="69131264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4194,24 +4191,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81802752"/>
-        <c:axId val="81804288"/>
+        <c:axId val="69490176"/>
+        <c:axId val="69491712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81802752"/>
+        <c:axId val="69490176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81804288"/>
+        <c:crossAx val="69491712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81804288"/>
+        <c:axId val="69491712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,7 +4216,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81802752"/>
+        <c:crossAx val="69490176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4232,7 +4229,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4633,24 +4630,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="100217216"/>
-        <c:axId val="100218752"/>
+        <c:axId val="69526656"/>
+        <c:axId val="69528192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100217216"/>
+        <c:axId val="69526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100218752"/>
+        <c:crossAx val="69528192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100218752"/>
+        <c:axId val="69528192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4658,7 +4655,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100217216"/>
+        <c:crossAx val="69526656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4671,7 +4668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4980,24 +4977,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65832448"/>
-        <c:axId val="65833984"/>
+        <c:axId val="69435392"/>
+        <c:axId val="69436928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65832448"/>
+        <c:axId val="69435392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65833984"/>
+        <c:crossAx val="69436928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65833984"/>
+        <c:axId val="69436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,7 +5002,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65832448"/>
+        <c:crossAx val="69435392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5018,7 +5015,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5135,25 +5132,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76868608"/>
-        <c:axId val="78390016"/>
+        <c:axId val="58551296"/>
+        <c:axId val="58569472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76868608"/>
+        <c:axId val="58551296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78390016"/>
+        <c:crossAx val="58569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78390016"/>
+        <c:axId val="58569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,7 +5158,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76868608"/>
+        <c:crossAx val="58551296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5175,6 +5172,261 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Standardab.Fräs nFxx vs nF17</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73392512"/>
+        <c:axId val="73524736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73392512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73524736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73524736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73392512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5291,25 +5543,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78426880"/>
-        <c:axId val="78428416"/>
+        <c:axId val="65606400"/>
+        <c:axId val="65607936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78426880"/>
+        <c:axId val="65606400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78428416"/>
+        <c:crossAx val="65607936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78428416"/>
+        <c:axId val="65607936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5317,7 +5569,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78426880"/>
+        <c:crossAx val="65606400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5357,7 +5609,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5460,25 +5711,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78490240"/>
-        <c:axId val="78578048"/>
+        <c:axId val="65669760"/>
+        <c:axId val="65696128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78490240"/>
+        <c:axId val="65669760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78578048"/>
+        <c:crossAx val="65696128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78578048"/>
+        <c:axId val="65696128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5486,14 +5737,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78490240"/>
+        <c:crossAx val="65669760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5527,7 +5777,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5630,25 +5879,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78594432"/>
-        <c:axId val="78595968"/>
+        <c:axId val="65708416"/>
+        <c:axId val="65709952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78594432"/>
+        <c:axId val="65708416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78595968"/>
+        <c:crossAx val="65709952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78595968"/>
+        <c:axId val="65709952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5656,14 +5905,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78594432"/>
+        <c:crossAx val="65708416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5787,25 +6035,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78612352"/>
-        <c:axId val="78613888"/>
+        <c:axId val="65726336"/>
+        <c:axId val="65727872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78612352"/>
+        <c:axId val="65726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78613888"/>
+        <c:crossAx val="65727872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78613888"/>
+        <c:axId val="65727872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +6061,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78612352"/>
+        <c:crossAx val="65726336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5943,25 +6191,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78638080"/>
-        <c:axId val="79770368"/>
+        <c:axId val="66808832"/>
+        <c:axId val="66822912"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78638080"/>
+        <c:axId val="66808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79770368"/>
+        <c:crossAx val="66822912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79770368"/>
+        <c:axId val="66822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,7 +6217,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78638080"/>
+        <c:crossAx val="66808832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6111,25 +6359,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="79828096"/>
-        <c:axId val="79829632"/>
+        <c:axId val="66884736"/>
+        <c:axId val="66886272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79828096"/>
+        <c:axId val="66884736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79829632"/>
+        <c:crossAx val="66886272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79829632"/>
+        <c:axId val="66886272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6137,7 +6385,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79828096"/>
+        <c:crossAx val="66884736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6970,16 +7218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7053,6 +7301,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15282,8 +15560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/SandboxVDKDFräs.xlsx
+++ b/SandboxVDKDFräs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nFxxFräs" sheetId="1" r:id="rId1"/>
@@ -643,6 +643,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -745,25 +746,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58854784"/>
-        <c:axId val="65111168"/>
+        <c:axId val="62942592"/>
+        <c:axId val="64062592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58854784"/>
+        <c:axId val="62942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65111168"/>
+        <c:crossAx val="64062592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65111168"/>
+        <c:axId val="64062592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,13 +772,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58854784"/>
+        <c:crossAx val="62942592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -921,25 +923,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66898560"/>
-        <c:axId val="66912640"/>
+        <c:axId val="64057728"/>
+        <c:axId val="64059264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66898560"/>
+        <c:axId val="64057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66912640"/>
+        <c:crossAx val="64059264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66912640"/>
+        <c:axId val="64059264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,13 +949,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66898560"/>
+        <c:crossAx val="64057728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -987,6 +990,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1065,25 +1069,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66945408"/>
-        <c:axId val="66946944"/>
+        <c:axId val="64075648"/>
+        <c:axId val="64077184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66945408"/>
+        <c:axId val="64075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66946944"/>
+        <c:crossAx val="64077184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66946944"/>
+        <c:axId val="64077184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,13 +1095,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66945408"/>
+        <c:crossAx val="64075648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1135,7 +1140,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17658333333333354"/>
+          <c:x val="0.17658333333333359"/>
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1217,25 +1222,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66967424"/>
-        <c:axId val="66968960"/>
+        <c:axId val="64826752"/>
+        <c:axId val="64828544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66967424"/>
+        <c:axId val="64826752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66968960"/>
+        <c:crossAx val="64828544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66968960"/>
+        <c:axId val="64828544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,13 +1248,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66967424"/>
+        <c:crossAx val="64826752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1385,25 +1391,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66990080"/>
-        <c:axId val="66991616"/>
+        <c:axId val="64890368"/>
+        <c:axId val="64891904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66990080"/>
+        <c:axId val="64890368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66991616"/>
+        <c:crossAx val="64891904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66991616"/>
+        <c:axId val="64891904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1417,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66990080"/>
+        <c:crossAx val="64890368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,25 +1559,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67024384"/>
-        <c:axId val="67025920"/>
+        <c:axId val="64912384"/>
+        <c:axId val="64922368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67024384"/>
+        <c:axId val="64912384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67025920"/>
+        <c:crossAx val="64922368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67025920"/>
+        <c:axId val="64922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1585,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67024384"/>
+        <c:crossAx val="64912384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1729,25 +1735,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67111936"/>
-        <c:axId val="67117824"/>
+        <c:axId val="64938752"/>
+        <c:axId val="64940288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67111936"/>
+        <c:axId val="64938752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67117824"/>
+        <c:crossAx val="64940288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67117824"/>
+        <c:axId val="64940288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1761,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67111936"/>
+        <c:crossAx val="64938752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,25 +1903,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67146496"/>
-        <c:axId val="67148032"/>
+        <c:axId val="66009344"/>
+        <c:axId val="66015232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67146496"/>
+        <c:axId val="66009344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67148032"/>
+        <c:crossAx val="66015232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67148032"/>
+        <c:axId val="66015232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1929,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67146496"/>
+        <c:crossAx val="66009344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2065,25 +2071,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67176704"/>
-        <c:axId val="67190784"/>
+        <c:axId val="66043904"/>
+        <c:axId val="66045440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67176704"/>
+        <c:axId val="66043904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67190784"/>
+        <c:crossAx val="66045440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67190784"/>
+        <c:axId val="66045440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2097,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67176704"/>
+        <c:crossAx val="66043904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2233,25 +2239,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67211264"/>
-        <c:axId val="67212800"/>
+        <c:axId val="66057728"/>
+        <c:axId val="66059264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67211264"/>
+        <c:axId val="66057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67212800"/>
+        <c:crossAx val="66059264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67212800"/>
+        <c:axId val="66059264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2265,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67211264"/>
+        <c:crossAx val="66057728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,25 +2407,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68552192"/>
-        <c:axId val="68553728"/>
+        <c:axId val="66075648"/>
+        <c:axId val="66077440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68552192"/>
+        <c:axId val="66075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68553728"/>
+        <c:crossAx val="66077440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68553728"/>
+        <c:axId val="66077440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2433,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68552192"/>
+        <c:crossAx val="66075648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2577,25 +2583,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65132032"/>
-        <c:axId val="65133568"/>
+        <c:axId val="73493120"/>
+        <c:axId val="75387264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65132032"/>
+        <c:axId val="73493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65133568"/>
+        <c:crossAx val="75387264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65133568"/>
+        <c:axId val="75387264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,13 +2609,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65132032"/>
+        <c:crossAx val="73493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2753,25 +2760,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68574208"/>
-        <c:axId val="68588288"/>
+        <c:axId val="66130688"/>
+        <c:axId val="66132224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68574208"/>
+        <c:axId val="66130688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68588288"/>
+        <c:crossAx val="66132224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68588288"/>
+        <c:axId val="66132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2786,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68574208"/>
+        <c:crossAx val="66130688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2921,25 +2928,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68621056"/>
-        <c:axId val="68622592"/>
+        <c:axId val="66144512"/>
+        <c:axId val="66154496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68621056"/>
+        <c:axId val="66144512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68622592"/>
+        <c:crossAx val="66154496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68622592"/>
+        <c:axId val="66154496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2954,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68621056"/>
+        <c:crossAx val="66144512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3089,25 +3096,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68643072"/>
-        <c:axId val="68661248"/>
+        <c:axId val="66170880"/>
+        <c:axId val="66172416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68643072"/>
+        <c:axId val="66170880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68661248"/>
+        <c:crossAx val="66172416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68661248"/>
+        <c:axId val="66172416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3122,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68643072"/>
+        <c:crossAx val="66170880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3257,25 +3264,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68677632"/>
-        <c:axId val="68679168"/>
+        <c:axId val="66467328"/>
+        <c:axId val="66468864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68677632"/>
+        <c:axId val="66467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68679168"/>
+        <c:crossAx val="66468864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68679168"/>
+        <c:axId val="66468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3290,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68677632"/>
+        <c:crossAx val="66467328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,25 +3440,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68978176"/>
-        <c:axId val="68979712"/>
+        <c:axId val="66493440"/>
+        <c:axId val="66503424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68978176"/>
+        <c:axId val="66493440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68979712"/>
+        <c:crossAx val="66503424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68979712"/>
+        <c:axId val="66503424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3466,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68978176"/>
+        <c:crossAx val="66493440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3784,25 +3791,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69022848"/>
-        <c:axId val="69024384"/>
+        <c:axId val="66800256"/>
+        <c:axId val="66814336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69022848"/>
+        <c:axId val="66800256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69024384"/>
+        <c:crossAx val="66814336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69024384"/>
+        <c:axId val="66814336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +3817,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69022848"/>
+        <c:crossAx val="66800256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3834,7 +3841,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3936,25 +3945,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69131264"/>
-        <c:axId val="69141248"/>
+        <c:axId val="66908928"/>
+        <c:axId val="66910464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69131264"/>
+        <c:axId val="66908928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69141248"/>
+        <c:crossAx val="66910464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69141248"/>
+        <c:axId val="66910464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,19 +3971,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69131264"/>
+        <c:crossAx val="66908928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4000,7 +4010,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4191,24 +4200,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69490176"/>
-        <c:axId val="69491712"/>
+        <c:axId val="67042304"/>
+        <c:axId val="67371776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69490176"/>
+        <c:axId val="67042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69491712"/>
+        <c:crossAx val="67371776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69491712"/>
+        <c:axId val="67371776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,20 +4225,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69490176"/>
+        <c:crossAx val="67042304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4255,7 +4263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4630,24 +4637,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69526656"/>
-        <c:axId val="69528192"/>
+        <c:axId val="67422848"/>
+        <c:axId val="67424640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69526656"/>
+        <c:axId val="67422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69528192"/>
+        <c:crossAx val="67424640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69528192"/>
+        <c:axId val="67424640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,20 +4662,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69526656"/>
+        <c:crossAx val="67422848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4694,7 +4700,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4977,24 +4982,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69435392"/>
-        <c:axId val="69436928"/>
+        <c:axId val="67450368"/>
+        <c:axId val="67451904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69435392"/>
+        <c:axId val="67450368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69436928"/>
+        <c:crossAx val="67451904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69436928"/>
+        <c:axId val="67451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,20 +5007,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69435392"/>
+        <c:crossAx val="67450368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5132,25 +5136,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58551296"/>
-        <c:axId val="58569472"/>
+        <c:axId val="87877120"/>
+        <c:axId val="91267456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58551296"/>
+        <c:axId val="87877120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58569472"/>
+        <c:crossAx val="91267456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58569472"/>
+        <c:axId val="91267456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,7 +5162,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58551296"/>
+        <c:crossAx val="87877120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5197,7 +5201,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5388,24 +5391,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73392512"/>
-        <c:axId val="73524736"/>
+        <c:axId val="67493248"/>
+        <c:axId val="67499136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73392512"/>
+        <c:axId val="67493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73524736"/>
+        <c:crossAx val="67499136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73524736"/>
+        <c:axId val="67499136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5413,7 +5416,353 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73392512"/>
+        <c:crossAx val="67493248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Fräs Vgl neu nF13/nF17/nFxx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="67533056"/>
+        <c:axId val="67559424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67533056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67559424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67559424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67533056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5426,7 +5775,446 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Fräs Standardab. Alle neuen Mat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergl.Fäs!$D$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14475023861447475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15401298646542766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7141747805092262E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6137289353275334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.366028258614094E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1884410139143637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6052030071259679E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14869962658785785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29006532839490162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40218187820672957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="67606784"/>
+        <c:axId val="67637248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67606784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67637248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67637248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67606784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5543,25 +6331,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65606400"/>
-        <c:axId val="65607936"/>
+        <c:axId val="62973824"/>
+        <c:axId val="62975360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65606400"/>
+        <c:axId val="62973824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65607936"/>
+        <c:crossAx val="62975360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65607936"/>
+        <c:axId val="62975360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +6357,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65606400"/>
+        <c:crossAx val="62973824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5609,6 +6397,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5711,25 +6500,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65669760"/>
-        <c:axId val="65696128"/>
+        <c:axId val="63049728"/>
+        <c:axId val="63051264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65669760"/>
+        <c:axId val="63049728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65696128"/>
+        <c:crossAx val="63051264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65696128"/>
+        <c:axId val="63051264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5737,13 +6526,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65669760"/>
+        <c:crossAx val="63049728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5777,6 +6567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -5879,25 +6670,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65708416"/>
-        <c:axId val="65709952"/>
+        <c:axId val="63071744"/>
+        <c:axId val="63073280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65708416"/>
+        <c:axId val="63071744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65709952"/>
+        <c:crossAx val="63073280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65709952"/>
+        <c:axId val="63073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,13 +6696,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65708416"/>
+        <c:crossAx val="63071744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5945,6 +6737,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -6035,25 +6828,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65726336"/>
-        <c:axId val="65727872"/>
+        <c:axId val="63089664"/>
+        <c:axId val="63091456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65726336"/>
+        <c:axId val="63089664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65727872"/>
+        <c:crossAx val="63091456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65727872"/>
+        <c:axId val="63091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6061,13 +6854,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65726336"/>
+        <c:crossAx val="63089664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6101,6 +6895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -6191,25 +6986,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66808832"/>
-        <c:axId val="66822912"/>
+        <c:axId val="63103744"/>
+        <c:axId val="63105280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66808832"/>
+        <c:axId val="63103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66822912"/>
+        <c:crossAx val="63105280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66822912"/>
+        <c:axId val="63105280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6217,13 +7012,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66808832"/>
+        <c:crossAx val="63103744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6257,6 +7053,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -6359,25 +7156,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66884736"/>
-        <c:axId val="66886272"/>
+        <c:axId val="63404672"/>
+        <c:axId val="63406464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66884736"/>
+        <c:axId val="63404672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66886272"/>
+        <c:crossAx val="63406464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66886272"/>
+        <c:axId val="63406464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6385,13 +7182,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66884736"/>
+        <c:crossAx val="63404672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7336,6 +8134,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8022,8 +8880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:N27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9045,11 +9903,11 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="18.75">
-      <c r="G52" s="5" t="s">
+    <row r="54" spans="4:13" ht="18.75">
+      <c r="G54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="4:13">
       <c r="D55" s="7" t="s">
@@ -9953,8 +10811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView topLeftCell="C92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10974,11 +11832,11 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="103" spans="4:13" ht="18.75">
-      <c r="G103" s="5" t="s">
+    <row r="104" spans="4:13" ht="18.75">
+      <c r="G104" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H103" s="5"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105" spans="4:13">
       <c r="D105" s="7" t="s">
@@ -11839,8 +12697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75:M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12861,11 +13719,11 @@
         <v>1.3999999999999995</v>
       </c>
     </row>
-    <row r="74" spans="4:13" ht="18.75">
-      <c r="G74" s="5" t="s">
+    <row r="75" spans="4:13" ht="18.75">
+      <c r="G75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="5"/>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" spans="4:13">
       <c r="D76" s="7" t="s">
@@ -13877,8 +14735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15560,8 +16418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
